--- a/план.xlsx
+++ b/план.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Project\Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Projects\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9A1AAD-F150-43F6-9894-DC8FFE70E83C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA68424-696C-4866-B0AF-0C4E0FD588EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9268" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9268" uniqueCount="1138">
   <si>
     <t>№ з/з</t>
   </si>
@@ -3800,6 +3800,9 @@
   </si>
   <si>
     <t>28-03.11</t>
+  </si>
+  <si>
+    <t>02-04.01</t>
   </si>
 </sst>
 </file>
@@ -4311,14 +4314,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4332,23 +4347,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4358,10 +4361,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4730,71 +4733,71 @@
       <selection sqref="A1:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="14" max="14" width="2.88671875" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E2" s="59" t="s">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="60" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="67"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63"/>
+      <c r="N4" s="62"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="67"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4807,17 +4810,17 @@
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
         <v>12</v>
       </c>
@@ -4835,7 +4838,7 @@
       <c r="M6" s="56"/>
       <c r="N6" s="57"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>790</v>
       </c>
@@ -4877,7 +4880,7 @@
       </c>
       <c r="N7" s="54"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>783</v>
       </c>
@@ -4919,7 +4922,7 @@
       </c>
       <c r="N8" s="54"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>791</v>
       </c>
@@ -4961,7 +4964,7 @@
       </c>
       <c r="N9" s="54"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>784</v>
       </c>
@@ -5003,7 +5006,7 @@
       </c>
       <c r="N10" s="54"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>785</v>
       </c>
@@ -5045,7 +5048,7 @@
       </c>
       <c r="N11" s="54"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>786</v>
       </c>
@@ -5087,7 +5090,7 @@
       </c>
       <c r="N12" s="54"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>787</v>
       </c>
@@ -5129,7 +5132,7 @@
       </c>
       <c r="N13" s="54"/>
     </row>
-    <row r="14" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
         <v>13</v>
       </c>
@@ -5147,7 +5150,7 @@
       <c r="M14" s="56"/>
       <c r="N14" s="57"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>788</v>
       </c>
@@ -5189,7 +5192,7 @@
       </c>
       <c r="N15" s="54"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>800</v>
       </c>
@@ -5231,7 +5234,7 @@
       </c>
       <c r="N16" s="54"/>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>726</v>
       </c>
@@ -5273,7 +5276,7 @@
       </c>
       <c r="N17" s="58"/>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>803</v>
       </c>
@@ -5315,7 +5318,7 @@
       </c>
       <c r="N18" s="54"/>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>804</v>
       </c>
@@ -5357,7 +5360,7 @@
       </c>
       <c r="N19" s="54"/>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>805</v>
       </c>
@@ -5399,7 +5402,7 @@
       </c>
       <c r="N20" s="54"/>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>806</v>
       </c>
@@ -5441,7 +5444,7 @@
       </c>
       <c r="N21" s="54"/>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>807</v>
       </c>
@@ -5483,7 +5486,7 @@
       </c>
       <c r="N22" s="54"/>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>808</v>
       </c>
@@ -5525,7 +5528,7 @@
       </c>
       <c r="N23" s="54"/>
     </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>810</v>
       </c>
@@ -5567,7 +5570,7 @@
       </c>
       <c r="N24" s="54"/>
     </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>789</v>
       </c>
@@ -5609,7 +5612,7 @@
       </c>
       <c r="N25" s="54"/>
     </row>
-    <row r="26" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="55" t="s">
         <v>14</v>
       </c>
@@ -5627,7 +5630,7 @@
       <c r="M26" s="56"/>
       <c r="N26" s="57"/>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>802</v>
       </c>
@@ -5669,7 +5672,7 @@
       </c>
       <c r="N27" s="54"/>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>809</v>
       </c>
@@ -5711,7 +5714,7 @@
       </c>
       <c r="N28" s="54"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>795</v>
       </c>
@@ -5753,7 +5756,7 @@
       </c>
       <c r="N29" s="54"/>
     </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>783</v>
       </c>
@@ -5795,7 +5798,7 @@
       </c>
       <c r="N30" s="54"/>
     </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>813</v>
       </c>
@@ -5837,7 +5840,7 @@
       </c>
       <c r="N31" s="58"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>811</v>
       </c>
@@ -5879,7 +5882,7 @@
       </c>
       <c r="N32" s="54"/>
     </row>
-    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>812</v>
       </c>
@@ -5921,7 +5924,7 @@
       </c>
       <c r="N33" s="54"/>
     </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>814</v>
       </c>
@@ -5963,7 +5966,7 @@
       </c>
       <c r="N34" s="54"/>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>815</v>
       </c>
@@ -6005,7 +6008,7 @@
       </c>
       <c r="N35" s="54"/>
     </row>
-    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>817</v>
       </c>
@@ -6047,7 +6050,7 @@
       </c>
       <c r="N36" s="54"/>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>818</v>
       </c>
@@ -6089,7 +6092,7 @@
       </c>
       <c r="N37" s="54"/>
     </row>
-    <row r="38" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
         <v>20</v>
       </c>
@@ -6107,7 +6110,7 @@
       <c r="M38" s="56"/>
       <c r="N38" s="57"/>
     </row>
-    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>814</v>
       </c>
@@ -6149,7 +6152,7 @@
       </c>
       <c r="N39" s="54"/>
     </row>
-    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>815</v>
       </c>
@@ -6191,7 +6194,7 @@
       </c>
       <c r="N40" s="54"/>
     </row>
-    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>819</v>
       </c>
@@ -6233,7 +6236,7 @@
       </c>
       <c r="N41" s="58"/>
     </row>
-    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>812</v>
       </c>
@@ -6275,7 +6278,7 @@
       </c>
       <c r="N42" s="54"/>
     </row>
-    <row r="43" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="55" t="s">
         <v>21</v>
       </c>
@@ -6293,7 +6296,7 @@
       <c r="M43" s="56"/>
       <c r="N43" s="57"/>
     </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>794</v>
       </c>
@@ -6335,7 +6338,7 @@
       </c>
       <c r="N44" s="54"/>
     </row>
-    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>796</v>
       </c>
@@ -6377,7 +6380,7 @@
       </c>
       <c r="N45" s="54"/>
     </row>
-    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>818</v>
       </c>
@@ -6419,7 +6422,7 @@
       </c>
       <c r="N46" s="54"/>
     </row>
-    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>820</v>
       </c>
@@ -6461,7 +6464,7 @@
       </c>
       <c r="N47" s="58"/>
     </row>
-    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>817</v>
       </c>
@@ -6503,7 +6506,7 @@
       </c>
       <c r="N48" s="58"/>
     </row>
-    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>816</v>
       </c>
@@ -6545,7 +6548,7 @@
       </c>
       <c r="N49" s="54"/>
     </row>
-    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>800</v>
       </c>
@@ -6587,7 +6590,7 @@
       </c>
       <c r="N50" s="54"/>
     </row>
-    <row r="51" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="55" t="s">
         <v>22</v>
       </c>
@@ -6605,7 +6608,7 @@
       <c r="M51" s="56"/>
       <c r="N51" s="57"/>
     </row>
-    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>797</v>
       </c>
@@ -6631,7 +6634,7 @@
       </c>
       <c r="N52" s="54"/>
     </row>
-    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>798</v>
       </c>
@@ -6657,7 +6660,7 @@
       </c>
       <c r="N53" s="54"/>
     </row>
-    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>792</v>
       </c>
@@ -6679,7 +6682,7 @@
       </c>
       <c r="N54" s="58"/>
     </row>
-    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>821</v>
       </c>
@@ -6699,7 +6702,7 @@
       </c>
       <c r="N55" s="54"/>
     </row>
-    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>793</v>
       </c>
@@ -6719,7 +6722,7 @@
       </c>
       <c r="N56" s="54"/>
     </row>
-    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>823</v>
       </c>
@@ -6739,7 +6742,7 @@
       </c>
       <c r="N57" s="54"/>
     </row>
-    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>822</v>
       </c>
@@ -6761,7 +6764,7 @@
       </c>
       <c r="N58" s="54"/>
     </row>
-    <row r="59" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="55" t="s">
         <v>58</v>
       </c>
@@ -6779,7 +6782,7 @@
       <c r="M59" s="56"/>
       <c r="N59" s="57"/>
     </row>
-    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>824</v>
       </c>
@@ -6807,7 +6810,7 @@
       </c>
       <c r="N60" s="54"/>
     </row>
-    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -6823,7 +6826,7 @@
       <c r="M61" s="53"/>
       <c r="N61" s="54"/>
     </row>
-    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -6839,7 +6842,7 @@
       <c r="M62" s="53"/>
       <c r="N62" s="58"/>
     </row>
-    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -6855,7 +6858,7 @@
       <c r="M63" s="53"/>
       <c r="N63" s="54"/>
     </row>
-    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -6871,7 +6874,7 @@
       <c r="M64" s="53"/>
       <c r="N64" s="54"/>
     </row>
-    <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -6887,7 +6890,7 @@
       <c r="M65" s="53"/>
       <c r="N65" s="54"/>
     </row>
-    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -6905,14 +6908,55 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="M57:N57"/>
     <mergeCell ref="M58:N58"/>
     <mergeCell ref="L4:L5"/>
@@ -6929,55 +6973,14 @@
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="A26:N26"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="A51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -6992,61 +6995,61 @@
       <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E2" s="59" t="s">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="60" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="67"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63"/>
+      <c r="N4" s="62"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="67"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -7059,17 +7062,17 @@
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
         <v>20</v>
       </c>
@@ -7087,7 +7090,7 @@
       <c r="M6" s="56"/>
       <c r="N6" s="57"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>814</v>
       </c>
@@ -7129,7 +7132,7 @@
       </c>
       <c r="N7" s="54"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>815</v>
       </c>
@@ -7171,7 +7174,7 @@
       </c>
       <c r="N8" s="54"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>819</v>
       </c>
@@ -7213,7 +7216,7 @@
       </c>
       <c r="N9" s="58"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>812</v>
       </c>
@@ -7255,7 +7258,7 @@
       </c>
       <c r="N10" s="54"/>
     </row>
-    <row r="11" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55" t="s">
         <v>21</v>
       </c>
@@ -7273,7 +7276,7 @@
       <c r="M11" s="56"/>
       <c r="N11" s="57"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>794</v>
       </c>
@@ -7315,7 +7318,7 @@
       </c>
       <c r="N12" s="54"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>796</v>
       </c>
@@ -7357,7 +7360,7 @@
       </c>
       <c r="N13" s="54"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>818</v>
       </c>
@@ -7399,7 +7402,7 @@
       </c>
       <c r="N14" s="54"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>820</v>
       </c>
@@ -7441,7 +7444,7 @@
       </c>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>817</v>
       </c>
@@ -7483,7 +7486,7 @@
       </c>
       <c r="N16" s="58"/>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>816</v>
       </c>
@@ -7525,7 +7528,7 @@
       </c>
       <c r="N17" s="54"/>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>800</v>
       </c>
@@ -7567,7 +7570,7 @@
       </c>
       <c r="N18" s="54"/>
     </row>
-    <row r="19" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
         <v>22</v>
       </c>
@@ -7585,7 +7588,7 @@
       <c r="M19" s="56"/>
       <c r="N19" s="57"/>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>797</v>
       </c>
@@ -7627,7 +7630,7 @@
       </c>
       <c r="N20" s="54"/>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>798</v>
       </c>
@@ -7669,7 +7672,7 @@
       </c>
       <c r="N21" s="54"/>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>792</v>
       </c>
@@ -7711,7 +7714,7 @@
       </c>
       <c r="N22" s="58"/>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>821</v>
       </c>
@@ -7753,7 +7756,7 @@
       </c>
       <c r="N23" s="54"/>
     </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>793</v>
       </c>
@@ -7795,7 +7798,7 @@
       </c>
       <c r="N24" s="54"/>
     </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>823</v>
       </c>
@@ -7837,7 +7840,7 @@
       </c>
       <c r="N25" s="54"/>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>822</v>
       </c>
@@ -7879,7 +7882,7 @@
       </c>
       <c r="N26" s="54"/>
     </row>
-    <row r="27" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="55" t="s">
         <v>58</v>
       </c>
@@ -7897,7 +7900,7 @@
       <c r="M27" s="56"/>
       <c r="N27" s="57"/>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>824</v>
       </c>
@@ -7939,7 +7942,7 @@
       </c>
       <c r="N28" s="54"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>827</v>
       </c>
@@ -7981,7 +7984,7 @@
       </c>
       <c r="N29" s="58"/>
     </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>829</v>
       </c>
@@ -8023,7 +8026,7 @@
       </c>
       <c r="N30" s="58"/>
     </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>828</v>
       </c>
@@ -8065,7 +8068,7 @@
       </c>
       <c r="N31" s="58"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>830</v>
       </c>
@@ -8099,7 +8102,7 @@
       </c>
       <c r="N32" s="58"/>
     </row>
-    <row r="33" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>792.79300000000001</v>
       </c>
@@ -8141,7 +8144,7 @@
       </c>
       <c r="N33" s="54"/>
     </row>
-    <row r="34" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55" t="s">
         <v>61</v>
       </c>
@@ -8159,7 +8162,7 @@
       <c r="M34" s="56"/>
       <c r="N34" s="57"/>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>837</v>
       </c>
@@ -8201,7 +8204,7 @@
       </c>
       <c r="N35" s="58"/>
     </row>
-    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>800</v>
       </c>
@@ -8243,7 +8246,7 @@
       </c>
       <c r="N36" s="54"/>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>831</v>
       </c>
@@ -8285,7 +8288,7 @@
       </c>
       <c r="N37" s="54"/>
     </row>
-    <row r="38" spans="1:14" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>838</v>
       </c>
@@ -8327,7 +8330,7 @@
       </c>
       <c r="N38" s="54"/>
     </row>
-    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>832</v>
       </c>
@@ -8369,7 +8372,7 @@
       </c>
       <c r="N39" s="54"/>
     </row>
-    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>833</v>
       </c>
@@ -8411,7 +8414,7 @@
       </c>
       <c r="N40" s="54"/>
     </row>
-    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>834</v>
       </c>
@@ -8453,7 +8456,7 @@
       </c>
       <c r="N41" s="54"/>
     </row>
-    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>835</v>
       </c>
@@ -8495,7 +8498,7 @@
       </c>
       <c r="N42" s="54"/>
     </row>
-    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>836</v>
       </c>
@@ -8537,7 +8540,7 @@
       </c>
       <c r="N43" s="54"/>
     </row>
-    <row r="44" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="55" t="s">
         <v>74</v>
       </c>
@@ -8555,7 +8558,7 @@
       <c r="M44" s="56"/>
       <c r="N44" s="57"/>
     </row>
-    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>840</v>
       </c>
@@ -8597,7 +8600,7 @@
       </c>
       <c r="N45" s="58"/>
     </row>
-    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>85</v>
       </c>
@@ -8639,7 +8642,7 @@
       </c>
       <c r="N46" s="58"/>
     </row>
-    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>86</v>
       </c>
@@ -8681,7 +8684,7 @@
       </c>
       <c r="N47" s="58"/>
     </row>
-    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>826</v>
       </c>
@@ -8723,7 +8726,7 @@
       </c>
       <c r="N48" s="58"/>
     </row>
-    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>842</v>
       </c>
@@ -8765,7 +8768,7 @@
       </c>
       <c r="N49" s="58"/>
     </row>
-    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>825</v>
       </c>
@@ -8807,7 +8810,7 @@
       </c>
       <c r="N50" s="54"/>
     </row>
-    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>845</v>
       </c>
@@ -8849,7 +8852,7 @@
       </c>
       <c r="N51" s="54"/>
     </row>
-    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>846</v>
       </c>
@@ -8891,7 +8894,7 @@
       </c>
       <c r="N52" s="54"/>
     </row>
-    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>796</v>
       </c>
@@ -8933,7 +8936,7 @@
       </c>
       <c r="N53" s="54"/>
     </row>
-    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>847</v>
       </c>
@@ -8975,7 +8978,7 @@
       </c>
       <c r="N54" s="54"/>
     </row>
-    <row r="55" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="55" t="s">
         <v>79</v>
       </c>
@@ -8993,7 +8996,7 @@
       <c r="M55" s="56"/>
       <c r="N55" s="57"/>
     </row>
-    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>841</v>
       </c>
@@ -9013,7 +9016,7 @@
       </c>
       <c r="N56" s="58"/>
     </row>
-    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>843</v>
       </c>
@@ -9055,7 +9058,7 @@
       </c>
       <c r="N57" s="70"/>
     </row>
-    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>844</v>
       </c>
@@ -9097,7 +9100,7 @@
       </c>
       <c r="N58" s="70"/>
     </row>
-    <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>830</v>
       </c>
@@ -9139,7 +9142,7 @@
       </c>
       <c r="N59" s="58"/>
     </row>
-    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>851</v>
       </c>
@@ -9181,7 +9184,7 @@
       </c>
       <c r="N60" s="58"/>
     </row>
-    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>839</v>
       </c>
@@ -9223,7 +9226,7 @@
       </c>
       <c r="N61" s="58"/>
     </row>
-    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>852</v>
       </c>
@@ -9265,7 +9268,7 @@
       </c>
       <c r="N62" s="58"/>
     </row>
-    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>853</v>
       </c>
@@ -9307,7 +9310,7 @@
       </c>
       <c r="N63" s="58"/>
     </row>
-    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>848</v>
       </c>
@@ -9349,7 +9352,7 @@
       </c>
       <c r="N64" s="58"/>
     </row>
-    <row r="65" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="55" t="s">
         <v>88</v>
       </c>
@@ -9367,7 +9370,7 @@
       <c r="M65" s="56"/>
       <c r="N65" s="57"/>
     </row>
-    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>854</v>
       </c>
@@ -9409,7 +9412,7 @@
       </c>
       <c r="N66" s="58"/>
     </row>
-    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>855</v>
       </c>
@@ -9451,7 +9454,7 @@
       </c>
       <c r="N67" s="58"/>
     </row>
-    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>856</v>
       </c>
@@ -9493,7 +9496,7 @@
       </c>
       <c r="N68" s="58"/>
     </row>
-    <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>799</v>
       </c>
@@ -9535,7 +9538,7 @@
       </c>
       <c r="N69" s="58"/>
     </row>
-    <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>857</v>
       </c>
@@ -9577,7 +9580,7 @@
       </c>
       <c r="N70" s="58"/>
     </row>
-    <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>858</v>
       </c>
@@ -9619,7 +9622,7 @@
       </c>
       <c r="N71" s="58"/>
     </row>
-    <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>859</v>
       </c>
@@ -9661,7 +9664,7 @@
       </c>
       <c r="N72" s="58"/>
     </row>
-    <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>860</v>
       </c>
@@ -9685,7 +9688,7 @@
       </c>
       <c r="N73" s="58"/>
     </row>
-    <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>861</v>
       </c>
@@ -9709,7 +9712,7 @@
       </c>
       <c r="N74" s="58"/>
     </row>
-    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>850</v>
       </c>
@@ -9751,7 +9754,7 @@
       </c>
       <c r="N75" s="58"/>
     </row>
-    <row r="76" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="55" t="s">
         <v>92</v>
       </c>
@@ -9769,7 +9772,7 @@
       <c r="M76" s="56"/>
       <c r="N76" s="57"/>
     </row>
-    <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>862</v>
       </c>
@@ -9811,7 +9814,7 @@
       </c>
       <c r="N77" s="58"/>
     </row>
-    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>863</v>
       </c>
@@ -9853,7 +9856,7 @@
       </c>
       <c r="N78" s="58"/>
     </row>
-    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>875</v>
       </c>
@@ -9895,7 +9898,7 @@
       </c>
       <c r="N79" s="58"/>
     </row>
-    <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>864</v>
       </c>
@@ -9937,7 +9940,7 @@
       </c>
       <c r="N80" s="58"/>
     </row>
-    <row r="81" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>865</v>
       </c>
@@ -9979,7 +9982,7 @@
       </c>
       <c r="N81" s="58"/>
     </row>
-    <row r="82" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>866</v>
       </c>
@@ -10021,7 +10024,7 @@
       </c>
       <c r="N82" s="58"/>
     </row>
-    <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>876</v>
       </c>
@@ -10063,7 +10066,7 @@
       </c>
       <c r="N83" s="58"/>
     </row>
-    <row r="84" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>874</v>
       </c>
@@ -10105,7 +10108,7 @@
       </c>
       <c r="N84" s="58"/>
     </row>
-    <row r="85" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>869</v>
       </c>
@@ -10147,7 +10150,7 @@
       </c>
       <c r="N85" s="58"/>
     </row>
-    <row r="86" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>870</v>
       </c>
@@ -10189,7 +10192,7 @@
       </c>
       <c r="N86" s="58"/>
     </row>
-    <row r="87" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>877</v>
       </c>
@@ -10231,7 +10234,7 @@
       </c>
       <c r="N87" s="58"/>
     </row>
-    <row r="88" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>872</v>
       </c>
@@ -10273,7 +10276,7 @@
       </c>
       <c r="N88" s="58"/>
     </row>
-    <row r="89" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>873</v>
       </c>
@@ -10315,7 +10318,7 @@
       </c>
       <c r="N89" s="58"/>
     </row>
-    <row r="90" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55" t="s">
         <v>171</v>
       </c>
@@ -10333,7 +10336,7 @@
       <c r="M90" s="56"/>
       <c r="N90" s="57"/>
     </row>
-    <row r="91" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>871</v>
       </c>
@@ -10375,7 +10378,7 @@
       </c>
       <c r="N91" s="58"/>
     </row>
-    <row r="92" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>881</v>
       </c>
@@ -10417,7 +10420,7 @@
       </c>
       <c r="N92" s="58"/>
     </row>
-    <row r="93" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>880</v>
       </c>
@@ -10459,7 +10462,7 @@
       </c>
       <c r="N93" s="58"/>
     </row>
-    <row r="94" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>886</v>
       </c>
@@ -10501,7 +10504,7 @@
       </c>
       <c r="N94" s="58"/>
     </row>
-    <row r="95" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>882</v>
       </c>
@@ -10543,7 +10546,7 @@
       </c>
       <c r="N95" s="58"/>
     </row>
-    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>883</v>
       </c>
@@ -10585,7 +10588,7 @@
       </c>
       <c r="N96" s="58"/>
     </row>
-    <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>884</v>
       </c>
@@ -10627,7 +10630,7 @@
       </c>
       <c r="N97" s="58"/>
     </row>
-    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>888</v>
       </c>
@@ -10669,7 +10672,7 @@
       </c>
       <c r="N98" s="58"/>
     </row>
-    <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>889</v>
       </c>
@@ -10711,7 +10714,7 @@
       </c>
       <c r="N99" s="58"/>
     </row>
-    <row r="100" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="55" t="s">
         <v>193</v>
       </c>
@@ -10729,7 +10732,7 @@
       <c r="M100" s="56"/>
       <c r="N100" s="57"/>
     </row>
-    <row r="101" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>887</v>
       </c>
@@ -10771,7 +10774,7 @@
       </c>
       <c r="N101" s="58"/>
     </row>
-    <row r="102" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>879</v>
       </c>
@@ -10801,7 +10804,7 @@
       </c>
       <c r="N102" s="58"/>
     </row>
-    <row r="103" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>841</v>
       </c>
@@ -10843,7 +10846,7 @@
       </c>
       <c r="N103" s="58"/>
     </row>
-    <row r="104" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>885</v>
       </c>
@@ -10873,7 +10876,7 @@
       </c>
       <c r="N104" s="58"/>
     </row>
-    <row r="105" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>890</v>
       </c>
@@ -10915,7 +10918,7 @@
       </c>
       <c r="N105" s="58"/>
     </row>
-    <row r="106" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>892</v>
       </c>
@@ -10957,7 +10960,7 @@
       </c>
       <c r="N106" s="58"/>
     </row>
-    <row r="107" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>893</v>
       </c>
@@ -10999,7 +11002,7 @@
       </c>
       <c r="N107" s="58"/>
     </row>
-    <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>894</v>
       </c>
@@ -11041,7 +11044,7 @@
       </c>
       <c r="N108" s="58"/>
     </row>
-    <row r="109" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>891</v>
       </c>
@@ -11083,7 +11086,7 @@
       </c>
       <c r="N109" s="58"/>
     </row>
-    <row r="110" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="55" t="s">
         <v>227</v>
       </c>
@@ -11101,7 +11104,7 @@
       <c r="M110" s="56"/>
       <c r="N110" s="57"/>
     </row>
-    <row r="111" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>895</v>
       </c>
@@ -11143,7 +11146,7 @@
       </c>
       <c r="N111" s="58"/>
     </row>
-    <row r="112" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>896</v>
       </c>
@@ -11185,7 +11188,7 @@
       </c>
       <c r="N112" s="58"/>
     </row>
-    <row r="113" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>905</v>
       </c>
@@ -11227,7 +11230,7 @@
       </c>
       <c r="N113" s="58"/>
     </row>
-    <row r="114" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>901</v>
       </c>
@@ -11269,7 +11272,7 @@
       </c>
       <c r="N114" s="58"/>
     </row>
-    <row r="115" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>903</v>
       </c>
@@ -11311,7 +11314,7 @@
       </c>
       <c r="N115" s="58"/>
     </row>
-    <row r="116" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>909</v>
       </c>
@@ -11353,7 +11356,7 @@
       </c>
       <c r="N116" s="58"/>
     </row>
-    <row r="117" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>898</v>
       </c>
@@ -11395,7 +11398,7 @@
       </c>
       <c r="N117" s="58"/>
     </row>
-    <row r="118" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>878</v>
       </c>
@@ -11437,7 +11440,7 @@
       </c>
       <c r="N118" s="58"/>
     </row>
-    <row r="119" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>904</v>
       </c>
@@ -11479,7 +11482,7 @@
       </c>
       <c r="N119" s="58"/>
     </row>
-    <row r="120" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>902</v>
       </c>
@@ -11519,7 +11522,7 @@
       </c>
       <c r="N120" s="58"/>
     </row>
-    <row r="121" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>879</v>
       </c>
@@ -11561,7 +11564,7 @@
       </c>
       <c r="N121" s="58"/>
     </row>
-    <row r="122" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>885</v>
       </c>
@@ -11603,7 +11606,7 @@
       </c>
       <c r="N122" s="58"/>
     </row>
-    <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>911</v>
       </c>
@@ -11645,7 +11648,7 @@
       </c>
       <c r="N123" s="58"/>
     </row>
-    <row r="124" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>906</v>
       </c>
@@ -11687,7 +11690,7 @@
       </c>
       <c r="N124" s="58"/>
     </row>
-    <row r="125" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="55" t="s">
         <v>228</v>
       </c>
@@ -11705,7 +11708,7 @@
       <c r="M125" s="56"/>
       <c r="N125" s="57"/>
     </row>
-    <row r="126" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="55" t="s">
         <v>229</v>
       </c>
@@ -11723,7 +11726,7 @@
       <c r="M126" s="56"/>
       <c r="N126" s="57"/>
     </row>
-    <row r="127" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>907</v>
       </c>
@@ -11747,7 +11750,7 @@
       </c>
       <c r="N127" s="58"/>
     </row>
-    <row r="128" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>908</v>
       </c>
@@ -11771,7 +11774,7 @@
       </c>
       <c r="N128" s="58"/>
     </row>
-    <row r="129" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>910</v>
       </c>
@@ -11791,7 +11794,7 @@
       </c>
       <c r="N129" s="58"/>
     </row>
-    <row r="130" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="55" t="s">
         <v>264</v>
       </c>
@@ -11809,7 +11812,7 @@
       <c r="M130" s="56"/>
       <c r="N130" s="57"/>
     </row>
-    <row r="131" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>912</v>
       </c>
@@ -11831,6 +11834,120 @@
     </row>
   </sheetData>
   <mergeCells count="138">
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="A130:N130"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="A125:N125"/>
+    <mergeCell ref="A126:N126"/>
+    <mergeCell ref="A110:N110"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="A90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="A55:N55"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M33:N33"/>
     <mergeCell ref="A100:N100"/>
     <mergeCell ref="M101:N101"/>
     <mergeCell ref="M102:N102"/>
@@ -11855,120 +11972,6 @@
     <mergeCell ref="M80:N80"/>
     <mergeCell ref="M81:N81"/>
     <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="A65:N65"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="A55:N55"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="A90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="A130:N130"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="A125:N125"/>
-    <mergeCell ref="A126:N126"/>
-    <mergeCell ref="A110:N110"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="M122:N122"/>
-    <mergeCell ref="M124:N124"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="M116:N116"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -11983,72 +11986,72 @@
       <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E2" s="59" t="s">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="60" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="67"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63"/>
+      <c r="Q4" s="62"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="67"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -12061,20 +12064,20 @@
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="69"/>
-    </row>
-    <row r="6" spans="1:17" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="64"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
         <v>264</v>
       </c>
@@ -12095,7 +12098,7 @@
       <c r="P6" s="56"/>
       <c r="Q6" s="57"/>
     </row>
-    <row r="7" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>913</v>
       </c>
@@ -12140,7 +12143,7 @@
       </c>
       <c r="Q7" s="58"/>
     </row>
-    <row r="8" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>914</v>
       </c>
@@ -12185,7 +12188,7 @@
       </c>
       <c r="Q8" s="58"/>
     </row>
-    <row r="9" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>911</v>
       </c>
@@ -12230,7 +12233,7 @@
       </c>
       <c r="Q9" s="58"/>
     </row>
-    <row r="10" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>915</v>
       </c>
@@ -12275,7 +12278,7 @@
       </c>
       <c r="Q10" s="58"/>
     </row>
-    <row r="11" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>917</v>
       </c>
@@ -12320,7 +12323,7 @@
       </c>
       <c r="Q11" s="58"/>
     </row>
-    <row r="12" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>918</v>
       </c>
@@ -12365,7 +12368,7 @@
       </c>
       <c r="Q12" s="58"/>
     </row>
-    <row r="13" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>912</v>
       </c>
@@ -12410,7 +12413,7 @@
       </c>
       <c r="Q13" s="58"/>
     </row>
-    <row r="14" spans="1:17" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
         <v>266</v>
       </c>
@@ -12431,7 +12434,7 @@
       <c r="P14" s="56"/>
       <c r="Q14" s="57"/>
     </row>
-    <row r="15" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>919</v>
       </c>
@@ -12476,7 +12479,7 @@
       </c>
       <c r="Q15" s="58"/>
     </row>
-    <row r="16" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>920</v>
       </c>
@@ -12521,7 +12524,7 @@
       </c>
       <c r="Q16" s="58"/>
     </row>
-    <row r="17" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>921</v>
       </c>
@@ -12566,7 +12569,7 @@
       </c>
       <c r="Q17" s="58"/>
     </row>
-    <row r="18" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>922</v>
       </c>
@@ -12611,7 +12614,7 @@
       </c>
       <c r="Q18" s="58"/>
     </row>
-    <row r="19" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>916</v>
       </c>
@@ -12656,7 +12659,7 @@
       </c>
       <c r="Q19" s="58"/>
     </row>
-    <row r="20" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>860</v>
       </c>
@@ -12701,7 +12704,7 @@
       </c>
       <c r="Q20" s="58"/>
     </row>
-    <row r="21" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>861</v>
       </c>
@@ -12746,7 +12749,7 @@
       </c>
       <c r="Q21" s="58"/>
     </row>
-    <row r="22" spans="1:17" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="55" t="s">
         <v>296</v>
       </c>
@@ -12767,7 +12770,7 @@
       <c r="P22" s="56"/>
       <c r="Q22" s="57"/>
     </row>
-    <row r="23" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>924</v>
       </c>
@@ -12812,7 +12815,7 @@
       </c>
       <c r="Q23" s="58"/>
     </row>
-    <row r="24" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>928</v>
       </c>
@@ -12857,7 +12860,7 @@
       </c>
       <c r="Q24" s="58"/>
     </row>
-    <row r="25" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>860</v>
       </c>
@@ -12902,7 +12905,7 @@
       </c>
       <c r="Q25" s="58"/>
     </row>
-    <row r="26" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>861</v>
       </c>
@@ -12947,7 +12950,7 @@
       </c>
       <c r="Q26" s="58"/>
     </row>
-    <row r="27" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>938</v>
       </c>
@@ -12992,7 +12995,7 @@
       </c>
       <c r="Q27" s="58"/>
     </row>
-    <row r="28" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>939</v>
       </c>
@@ -13037,7 +13040,7 @@
       </c>
       <c r="Q28" s="58"/>
     </row>
-    <row r="29" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>937</v>
       </c>
@@ -13082,7 +13085,7 @@
       </c>
       <c r="Q29" s="58"/>
     </row>
-    <row r="30" spans="1:17" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="55" t="s">
         <v>304</v>
       </c>
@@ -13103,7 +13106,7 @@
       <c r="P30" s="56"/>
       <c r="Q30" s="57"/>
     </row>
-    <row r="31" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>926</v>
       </c>
@@ -13148,7 +13151,7 @@
       </c>
       <c r="Q31" s="58"/>
     </row>
-    <row r="32" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>867</v>
       </c>
@@ -13193,7 +13196,7 @@
       </c>
       <c r="Q32" s="58"/>
     </row>
-    <row r="33" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>933</v>
       </c>
@@ -13238,7 +13241,7 @@
       </c>
       <c r="Q33" s="58"/>
     </row>
-    <row r="34" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>929</v>
       </c>
@@ -13283,7 +13286,7 @@
       </c>
       <c r="Q34" s="58"/>
     </row>
-    <row r="35" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>930</v>
       </c>
@@ -13328,7 +13331,7 @@
       </c>
       <c r="Q35" s="58"/>
     </row>
-    <row r="36" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>931</v>
       </c>
@@ -13373,7 +13376,7 @@
       </c>
       <c r="Q36" s="58"/>
     </row>
-    <row r="37" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>932</v>
       </c>
@@ -13418,7 +13421,7 @@
       </c>
       <c r="Q37" s="58"/>
     </row>
-    <row r="38" spans="1:17" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
         <v>305</v>
       </c>
@@ -13439,7 +13442,7 @@
       <c r="P38" s="56"/>
       <c r="Q38" s="57"/>
     </row>
-    <row r="39" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>925</v>
       </c>
@@ -13484,7 +13487,7 @@
       </c>
       <c r="Q39" s="58"/>
     </row>
-    <row r="40" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>946</v>
       </c>
@@ -13529,7 +13532,7 @@
       </c>
       <c r="Q40" s="58"/>
     </row>
-    <row r="41" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>934</v>
       </c>
@@ -13574,7 +13577,7 @@
       </c>
       <c r="Q41" s="58"/>
     </row>
-    <row r="42" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>935</v>
       </c>
@@ -13619,7 +13622,7 @@
       </c>
       <c r="Q42" s="58"/>
     </row>
-    <row r="43" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>936</v>
       </c>
@@ -13664,7 +13667,7 @@
       </c>
       <c r="Q43" s="58"/>
     </row>
-    <row r="44" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>940</v>
       </c>
@@ -13709,7 +13712,7 @@
       </c>
       <c r="Q44" s="58"/>
     </row>
-    <row r="45" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>927</v>
       </c>
@@ -13754,7 +13757,7 @@
       </c>
       <c r="Q45" s="58"/>
     </row>
-    <row r="46" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>941</v>
       </c>
@@ -13799,7 +13802,7 @@
       </c>
       <c r="Q46" s="58"/>
     </row>
-    <row r="47" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>944</v>
       </c>
@@ -13844,7 +13847,7 @@
       </c>
       <c r="Q47" s="58"/>
     </row>
-    <row r="48" spans="1:17" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="55" t="s">
         <v>331</v>
       </c>
@@ -13865,7 +13868,7 @@
       <c r="P48" s="56"/>
       <c r="Q48" s="57"/>
     </row>
-    <row r="49" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>947</v>
       </c>
@@ -13910,7 +13913,7 @@
       </c>
       <c r="Q49" s="58"/>
     </row>
-    <row r="50" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>948</v>
       </c>
@@ -13955,7 +13958,7 @@
       </c>
       <c r="Q50" s="58"/>
     </row>
-    <row r="51" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>945</v>
       </c>
@@ -14000,7 +14003,7 @@
       </c>
       <c r="Q51" s="58"/>
     </row>
-    <row r="52" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>942</v>
       </c>
@@ -14045,7 +14048,7 @@
       </c>
       <c r="Q52" s="58"/>
     </row>
-    <row r="53" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>955</v>
       </c>
@@ -14090,7 +14093,7 @@
       </c>
       <c r="Q53" s="58"/>
     </row>
-    <row r="54" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>954</v>
       </c>
@@ -14135,7 +14138,7 @@
       </c>
       <c r="Q54" s="58"/>
     </row>
-    <row r="55" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>956</v>
       </c>
@@ -14180,7 +14183,7 @@
       </c>
       <c r="Q55" s="54"/>
     </row>
-    <row r="56" spans="1:17" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="55" t="s">
         <v>88</v>
       </c>
@@ -14201,7 +14204,7 @@
       <c r="P56" s="56"/>
       <c r="Q56" s="57"/>
     </row>
-    <row r="57" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>951</v>
       </c>
@@ -14252,7 +14255,7 @@
       </c>
       <c r="Q57" s="58"/>
     </row>
-    <row r="58" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>959</v>
       </c>
@@ -14303,7 +14306,7 @@
       </c>
       <c r="Q58" s="58"/>
     </row>
-    <row r="59" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>958</v>
       </c>
@@ -14354,7 +14357,7 @@
       </c>
       <c r="Q59" s="58"/>
     </row>
-    <row r="60" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>961</v>
       </c>
@@ -14405,7 +14408,7 @@
       </c>
       <c r="Q60" s="58"/>
     </row>
-    <row r="61" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>962</v>
       </c>
@@ -14456,7 +14459,7 @@
       </c>
       <c r="Q61" s="58"/>
     </row>
-    <row r="62" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>963</v>
       </c>
@@ -14507,7 +14510,7 @@
       </c>
       <c r="Q62" s="58"/>
     </row>
-    <row r="63" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>949</v>
       </c>
@@ -14558,7 +14561,7 @@
       </c>
       <c r="Q63" s="58"/>
     </row>
-    <row r="64" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>973</v>
       </c>
@@ -14609,7 +14612,7 @@
       </c>
       <c r="Q64" s="58"/>
     </row>
-    <row r="65" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>964</v>
       </c>
@@ -14660,7 +14663,7 @@
       </c>
       <c r="Q65" s="54"/>
     </row>
-    <row r="66" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>953</v>
       </c>
@@ -14711,7 +14714,7 @@
       </c>
       <c r="Q66" s="58"/>
     </row>
-    <row r="67" spans="1:17" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="55" t="s">
         <v>92</v>
       </c>
@@ -14732,7 +14735,7 @@
       <c r="P67" s="56"/>
       <c r="Q67" s="57"/>
     </row>
-    <row r="68" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>975</v>
       </c>
@@ -14783,7 +14786,7 @@
       </c>
       <c r="Q68" s="58"/>
     </row>
-    <row r="69" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>977</v>
       </c>
@@ -14834,7 +14837,7 @@
       </c>
       <c r="Q69" s="58"/>
     </row>
-    <row r="70" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>966</v>
       </c>
@@ -14885,7 +14888,7 @@
       </c>
       <c r="Q70" s="58"/>
     </row>
-    <row r="71" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>967</v>
       </c>
@@ -14936,7 +14939,7 @@
       </c>
       <c r="Q71" s="58"/>
     </row>
-    <row r="72" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>968</v>
       </c>
@@ -14987,7 +14990,7 @@
       </c>
       <c r="Q72" s="58"/>
     </row>
-    <row r="73" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>970</v>
       </c>
@@ -15038,7 +15041,7 @@
       </c>
       <c r="Q73" s="58"/>
     </row>
-    <row r="74" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>981</v>
       </c>
@@ -15089,7 +15092,7 @@
       </c>
       <c r="Q74" s="58"/>
     </row>
-    <row r="75" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>982</v>
       </c>
@@ -15140,7 +15143,7 @@
       </c>
       <c r="Q75" s="58"/>
     </row>
-    <row r="76" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>965</v>
       </c>
@@ -15191,7 +15194,7 @@
       </c>
       <c r="Q76" s="58"/>
     </row>
-    <row r="77" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>980</v>
       </c>
@@ -15242,7 +15245,7 @@
       </c>
       <c r="Q77" s="58"/>
     </row>
-    <row r="78" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>952</v>
       </c>
@@ -15293,7 +15296,7 @@
       </c>
       <c r="Q78" s="58"/>
     </row>
-    <row r="79" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>976</v>
       </c>
@@ -15344,7 +15347,7 @@
       </c>
       <c r="Q79" s="58"/>
     </row>
-    <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>983</v>
       </c>
@@ -15395,7 +15398,7 @@
       </c>
       <c r="Q80" s="58"/>
     </row>
-    <row r="81" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="55" t="s">
         <v>171</v>
       </c>
@@ -15416,7 +15419,7 @@
       <c r="P81" s="56"/>
       <c r="Q81" s="57"/>
     </row>
-    <row r="82" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>971</v>
       </c>
@@ -15467,7 +15470,7 @@
       </c>
       <c r="Q82" s="58"/>
     </row>
-    <row r="83" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>969</v>
       </c>
@@ -15518,7 +15521,7 @@
       </c>
       <c r="Q83" s="58"/>
     </row>
-    <row r="84" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>984</v>
       </c>
@@ -15569,7 +15572,7 @@
       </c>
       <c r="Q84" s="58"/>
     </row>
-    <row r="85" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>996</v>
       </c>
@@ -15620,7 +15623,7 @@
       </c>
       <c r="Q85" s="58"/>
     </row>
-    <row r="86" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>972</v>
       </c>
@@ -15671,7 +15674,7 @@
       </c>
       <c r="Q86" s="58"/>
     </row>
-    <row r="87" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>997</v>
       </c>
@@ -15722,7 +15725,7 @@
       </c>
       <c r="Q87" s="58"/>
     </row>
-    <row r="88" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>986</v>
       </c>
@@ -15773,7 +15776,7 @@
       </c>
       <c r="Q88" s="58"/>
     </row>
-    <row r="89" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>985</v>
       </c>
@@ -15824,7 +15827,7 @@
       </c>
       <c r="Q89" s="58"/>
     </row>
-    <row r="90" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>993</v>
       </c>
@@ -15875,7 +15878,7 @@
       </c>
       <c r="Q90" s="58"/>
     </row>
-    <row r="91" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>994</v>
       </c>
@@ -15926,7 +15929,7 @@
       </c>
       <c r="Q91" s="58"/>
     </row>
-    <row r="92" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>979</v>
       </c>
@@ -15977,7 +15980,7 @@
       </c>
       <c r="Q92" s="58"/>
     </row>
-    <row r="93" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>978</v>
       </c>
@@ -16028,7 +16031,7 @@
       </c>
       <c r="Q93" s="58"/>
     </row>
-    <row r="94" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>991</v>
       </c>
@@ -16079,7 +16082,7 @@
       </c>
       <c r="Q94" s="58"/>
     </row>
-    <row r="95" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>890</v>
       </c>
@@ -16130,7 +16133,7 @@
       </c>
       <c r="Q95" s="58"/>
     </row>
-    <row r="96" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="55" t="s">
         <v>193</v>
       </c>
@@ -16151,7 +16154,7 @@
       <c r="P96" s="56"/>
       <c r="Q96" s="57"/>
     </row>
-    <row r="97" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>989</v>
       </c>
@@ -16202,7 +16205,7 @@
       </c>
       <c r="Q97" s="58"/>
     </row>
-    <row r="98" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>987</v>
       </c>
@@ -16253,7 +16256,7 @@
       </c>
       <c r="Q98" s="58"/>
     </row>
-    <row r="99" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>988</v>
       </c>
@@ -16304,7 +16307,7 @@
       </c>
       <c r="Q99" s="58"/>
     </row>
-    <row r="100" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>995</v>
       </c>
@@ -16355,7 +16358,7 @@
       </c>
       <c r="Q100" s="58"/>
     </row>
-    <row r="101" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>998</v>
       </c>
@@ -16406,7 +16409,7 @@
       </c>
       <c r="Q101" s="58"/>
     </row>
-    <row r="102" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>992</v>
       </c>
@@ -16457,7 +16460,7 @@
       </c>
       <c r="Q102" s="58"/>
     </row>
-    <row r="103" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>999</v>
       </c>
@@ -16510,6 +16513,95 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="A96:Q96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A81:Q81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A48:Q48"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="P103:Q103"/>
     <mergeCell ref="P101:Q101"/>
     <mergeCell ref="P19:Q19"/>
@@ -16534,95 +16626,6 @@
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="P35:Q35"/>
     <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A48:Q48"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A81:Q81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A96:Q96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P85:Q85"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -16640,85 +16643,85 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:Q299"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="2.33203125" customWidth="1"/>
-    <col min="18" max="18" width="13.109375" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="2.28515625" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="59" t="s">
+    <row r="1" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="60" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="67"/>
+      <c r="Q4" s="62"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63"/>
+    <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="67"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -16731,21 +16734,21 @@
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="69"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="64"/>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
         <v>264</v>
       </c>
@@ -16767,7 +16770,7 @@
       <c r="Q6" s="57"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>913</v>
       </c>
@@ -16813,7 +16816,7 @@
       <c r="Q7" s="58"/>
       <c r="R7" s="19"/>
     </row>
-    <row r="8" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>914</v>
       </c>
@@ -16859,7 +16862,7 @@
       <c r="Q8" s="58"/>
       <c r="R8" s="19"/>
     </row>
-    <row r="9" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>911</v>
       </c>
@@ -16905,7 +16908,7 @@
       <c r="Q9" s="58"/>
       <c r="R9" s="19"/>
     </row>
-    <row r="10" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>915</v>
       </c>
@@ -16951,7 +16954,7 @@
       <c r="Q10" s="58"/>
       <c r="R10" s="19"/>
     </row>
-    <row r="11" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>917</v>
       </c>
@@ -16997,7 +17000,7 @@
       <c r="Q11" s="58"/>
       <c r="R11" s="19"/>
     </row>
-    <row r="12" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>918</v>
       </c>
@@ -17043,7 +17046,7 @@
       <c r="Q12" s="58"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>912</v>
       </c>
@@ -17089,7 +17092,7 @@
       <c r="Q13" s="58"/>
       <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
         <v>266</v>
       </c>
@@ -17111,7 +17114,7 @@
       <c r="Q14" s="57"/>
       <c r="R14" s="18"/>
     </row>
-    <row r="15" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>919</v>
       </c>
@@ -17157,7 +17160,7 @@
       <c r="Q15" s="58"/>
       <c r="R15" s="19"/>
     </row>
-    <row r="16" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>920</v>
       </c>
@@ -17203,7 +17206,7 @@
       <c r="Q16" s="58"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>921</v>
       </c>
@@ -17249,7 +17252,7 @@
       <c r="Q17" s="58"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>922</v>
       </c>
@@ -17295,7 +17298,7 @@
       <c r="Q18" s="58"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>916</v>
       </c>
@@ -17341,7 +17344,7 @@
       <c r="Q19" s="58"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>860</v>
       </c>
@@ -17387,7 +17390,7 @@
       <c r="Q20" s="58"/>
       <c r="R20" s="19"/>
     </row>
-    <row r="21" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>861</v>
       </c>
@@ -17433,7 +17436,7 @@
       <c r="Q21" s="58"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="55" t="s">
         <v>296</v>
       </c>
@@ -17455,7 +17458,7 @@
       <c r="Q22" s="57"/>
       <c r="R22" s="18"/>
     </row>
-    <row r="23" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>924</v>
       </c>
@@ -17501,7 +17504,7 @@
       <c r="Q23" s="58"/>
       <c r="R23" s="19"/>
     </row>
-    <row r="24" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>928</v>
       </c>
@@ -17547,7 +17550,7 @@
       <c r="Q24" s="58"/>
       <c r="R24" s="19"/>
     </row>
-    <row r="25" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>860</v>
       </c>
@@ -17593,7 +17596,7 @@
       <c r="Q25" s="58"/>
       <c r="R25" s="19"/>
     </row>
-    <row r="26" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>861</v>
       </c>
@@ -17639,7 +17642,7 @@
       <c r="Q26" s="58"/>
       <c r="R26" s="19"/>
     </row>
-    <row r="27" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>938</v>
       </c>
@@ -17685,7 +17688,7 @@
       <c r="Q27" s="58"/>
       <c r="R27" s="19"/>
     </row>
-    <row r="28" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>939</v>
       </c>
@@ -17731,7 +17734,7 @@
       <c r="Q28" s="58"/>
       <c r="R28" s="19"/>
     </row>
-    <row r="29" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>937</v>
       </c>
@@ -17777,7 +17780,7 @@
       <c r="Q29" s="58"/>
       <c r="R29" s="19"/>
     </row>
-    <row r="30" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="55" t="s">
         <v>304</v>
       </c>
@@ -17799,7 +17802,7 @@
       <c r="Q30" s="57"/>
       <c r="R30" s="18"/>
     </row>
-    <row r="31" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>926</v>
       </c>
@@ -17845,7 +17848,7 @@
       <c r="Q31" s="58"/>
       <c r="R31" s="19"/>
     </row>
-    <row r="32" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>867</v>
       </c>
@@ -17891,7 +17894,7 @@
       <c r="Q32" s="58"/>
       <c r="R32" s="19"/>
     </row>
-    <row r="33" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>933</v>
       </c>
@@ -17937,7 +17940,7 @@
       <c r="Q33" s="58"/>
       <c r="R33" s="19"/>
     </row>
-    <row r="34" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>929</v>
       </c>
@@ -17983,7 +17986,7 @@
       <c r="Q34" s="58"/>
       <c r="R34" s="19"/>
     </row>
-    <row r="35" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>930</v>
       </c>
@@ -18029,7 +18032,7 @@
       <c r="Q35" s="58"/>
       <c r="R35" s="19"/>
     </row>
-    <row r="36" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>931</v>
       </c>
@@ -18075,7 +18078,7 @@
       <c r="Q36" s="58"/>
       <c r="R36" s="19"/>
     </row>
-    <row r="37" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>932</v>
       </c>
@@ -18121,7 +18124,7 @@
       <c r="Q37" s="58"/>
       <c r="R37" s="19"/>
     </row>
-    <row r="38" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
         <v>305</v>
       </c>
@@ -18143,7 +18146,7 @@
       <c r="Q38" s="57"/>
       <c r="R38" s="18"/>
     </row>
-    <row r="39" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>925</v>
       </c>
@@ -18189,7 +18192,7 @@
       <c r="Q39" s="58"/>
       <c r="R39" s="19"/>
     </row>
-    <row r="40" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>946</v>
       </c>
@@ -18235,7 +18238,7 @@
       <c r="Q40" s="58"/>
       <c r="R40" s="19"/>
     </row>
-    <row r="41" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>934</v>
       </c>
@@ -18281,7 +18284,7 @@
       <c r="Q41" s="58"/>
       <c r="R41" s="19"/>
     </row>
-    <row r="42" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>935</v>
       </c>
@@ -18327,7 +18330,7 @@
       <c r="Q42" s="58"/>
       <c r="R42" s="19"/>
     </row>
-    <row r="43" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>936</v>
       </c>
@@ -18373,7 +18376,7 @@
       <c r="Q43" s="58"/>
       <c r="R43" s="19"/>
     </row>
-    <row r="44" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>940</v>
       </c>
@@ -18419,7 +18422,7 @@
       <c r="Q44" s="58"/>
       <c r="R44" s="19"/>
     </row>
-    <row r="45" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>927</v>
       </c>
@@ -18465,7 +18468,7 @@
       <c r="Q45" s="58"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="46" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>941</v>
       </c>
@@ -18511,7 +18514,7 @@
       <c r="Q46" s="58"/>
       <c r="R46" s="19"/>
     </row>
-    <row r="47" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>944</v>
       </c>
@@ -18557,7 +18560,7 @@
       <c r="Q47" s="58"/>
       <c r="R47" s="19"/>
     </row>
-    <row r="48" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="55" t="s">
         <v>331</v>
       </c>
@@ -18579,7 +18582,7 @@
       <c r="Q48" s="57"/>
       <c r="R48" s="18"/>
     </row>
-    <row r="49" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>947</v>
       </c>
@@ -18625,7 +18628,7 @@
       <c r="Q49" s="58"/>
       <c r="R49" s="19"/>
     </row>
-    <row r="50" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>948</v>
       </c>
@@ -18671,7 +18674,7 @@
       <c r="Q50" s="58"/>
       <c r="R50" s="19"/>
     </row>
-    <row r="51" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>945</v>
       </c>
@@ -18717,7 +18720,7 @@
       <c r="Q51" s="58"/>
       <c r="R51" s="19"/>
     </row>
-    <row r="52" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>942</v>
       </c>
@@ -18763,7 +18766,7 @@
       <c r="Q52" s="58"/>
       <c r="R52" s="19"/>
     </row>
-    <row r="53" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>955</v>
       </c>
@@ -18809,7 +18812,7 @@
       <c r="Q53" s="58"/>
       <c r="R53" s="19"/>
     </row>
-    <row r="54" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>954</v>
       </c>
@@ -18855,7 +18858,7 @@
       <c r="Q54" s="58"/>
       <c r="R54" s="19"/>
     </row>
-    <row r="55" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>956</v>
       </c>
@@ -18901,7 +18904,7 @@
       <c r="Q55" s="54"/>
       <c r="R55" s="20"/>
     </row>
-    <row r="56" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="55" t="s">
         <v>88</v>
       </c>
@@ -18923,7 +18926,7 @@
       <c r="Q56" s="57"/>
       <c r="R56" s="18"/>
     </row>
-    <row r="57" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>951</v>
       </c>
@@ -18975,7 +18978,7 @@
       <c r="Q57" s="58"/>
       <c r="R57" s="19"/>
     </row>
-    <row r="58" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>959</v>
       </c>
@@ -19027,7 +19030,7 @@
       <c r="Q58" s="58"/>
       <c r="R58" s="19"/>
     </row>
-    <row r="59" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>958</v>
       </c>
@@ -19079,7 +19082,7 @@
       <c r="Q59" s="58"/>
       <c r="R59" s="19"/>
     </row>
-    <row r="60" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>961</v>
       </c>
@@ -19131,7 +19134,7 @@
       <c r="Q60" s="58"/>
       <c r="R60" s="19"/>
     </row>
-    <row r="61" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>962</v>
       </c>
@@ -19183,7 +19186,7 @@
       <c r="Q61" s="58"/>
       <c r="R61" s="19"/>
     </row>
-    <row r="62" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>963</v>
       </c>
@@ -19235,7 +19238,7 @@
       <c r="Q62" s="58"/>
       <c r="R62" s="19"/>
     </row>
-    <row r="63" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>949</v>
       </c>
@@ -19287,7 +19290,7 @@
       <c r="Q63" s="58"/>
       <c r="R63" s="19"/>
     </row>
-    <row r="64" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>973</v>
       </c>
@@ -19339,7 +19342,7 @@
       <c r="Q64" s="58"/>
       <c r="R64" s="19"/>
     </row>
-    <row r="65" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>964</v>
       </c>
@@ -19391,7 +19394,7 @@
       <c r="Q65" s="54"/>
       <c r="R65" s="20"/>
     </row>
-    <row r="66" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>953</v>
       </c>
@@ -19443,7 +19446,7 @@
       <c r="Q66" s="58"/>
       <c r="R66" s="19"/>
     </row>
-    <row r="67" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="55" t="s">
         <v>92</v>
       </c>
@@ -19465,7 +19468,7 @@
       <c r="Q67" s="57"/>
       <c r="R67" s="18"/>
     </row>
-    <row r="68" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>975</v>
       </c>
@@ -19517,7 +19520,7 @@
       <c r="Q68" s="58"/>
       <c r="R68" s="19"/>
     </row>
-    <row r="69" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>977</v>
       </c>
@@ -19569,7 +19572,7 @@
       <c r="Q69" s="58"/>
       <c r="R69" s="19"/>
     </row>
-    <row r="70" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>966</v>
       </c>
@@ -19621,7 +19624,7 @@
       <c r="Q70" s="58"/>
       <c r="R70" s="19"/>
     </row>
-    <row r="71" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>967</v>
       </c>
@@ -19673,7 +19676,7 @@
       <c r="Q71" s="58"/>
       <c r="R71" s="19"/>
     </row>
-    <row r="72" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>968</v>
       </c>
@@ -19725,7 +19728,7 @@
       <c r="Q72" s="58"/>
       <c r="R72" s="19"/>
     </row>
-    <row r="73" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>970</v>
       </c>
@@ -19777,7 +19780,7 @@
       <c r="Q73" s="58"/>
       <c r="R73" s="19"/>
     </row>
-    <row r="74" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>981</v>
       </c>
@@ -19829,7 +19832,7 @@
       <c r="Q74" s="58"/>
       <c r="R74" s="19"/>
     </row>
-    <row r="75" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>982</v>
       </c>
@@ -19881,7 +19884,7 @@
       <c r="Q75" s="58"/>
       <c r="R75" s="19"/>
     </row>
-    <row r="76" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>965</v>
       </c>
@@ -19933,7 +19936,7 @@
       <c r="Q76" s="58"/>
       <c r="R76" s="19"/>
     </row>
-    <row r="77" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>980</v>
       </c>
@@ -19985,7 +19988,7 @@
       <c r="Q77" s="58"/>
       <c r="R77" s="19"/>
     </row>
-    <row r="78" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>952</v>
       </c>
@@ -20037,7 +20040,7 @@
       <c r="Q78" s="58"/>
       <c r="R78" s="19"/>
     </row>
-    <row r="79" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>976</v>
       </c>
@@ -20089,7 +20092,7 @@
       <c r="Q79" s="58"/>
       <c r="R79" s="19"/>
     </row>
-    <row r="80" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>983</v>
       </c>
@@ -20141,7 +20144,7 @@
       <c r="Q80" s="58"/>
       <c r="R80" s="19"/>
     </row>
-    <row r="81" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="55" t="s">
         <v>171</v>
       </c>
@@ -20163,7 +20166,7 @@
       <c r="Q81" s="57"/>
       <c r="R81" s="18"/>
     </row>
-    <row r="82" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>971</v>
       </c>
@@ -20215,7 +20218,7 @@
       <c r="Q82" s="58"/>
       <c r="R82" s="19"/>
     </row>
-    <row r="83" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>969</v>
       </c>
@@ -20267,7 +20270,7 @@
       <c r="Q83" s="58"/>
       <c r="R83" s="19"/>
     </row>
-    <row r="84" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>984</v>
       </c>
@@ -20319,7 +20322,7 @@
       <c r="Q84" s="58"/>
       <c r="R84" s="19"/>
     </row>
-    <row r="85" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>996</v>
       </c>
@@ -20371,7 +20374,7 @@
       <c r="Q85" s="58"/>
       <c r="R85" s="19"/>
     </row>
-    <row r="86" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>972</v>
       </c>
@@ -20423,7 +20426,7 @@
       <c r="Q86" s="58"/>
       <c r="R86" s="19"/>
     </row>
-    <row r="87" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>997</v>
       </c>
@@ -20475,7 +20478,7 @@
       <c r="Q87" s="58"/>
       <c r="R87" s="19"/>
     </row>
-    <row r="88" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>986</v>
       </c>
@@ -20527,7 +20530,7 @@
       <c r="Q88" s="58"/>
       <c r="R88" s="19"/>
     </row>
-    <row r="89" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>985</v>
       </c>
@@ -20579,7 +20582,7 @@
       <c r="Q89" s="58"/>
       <c r="R89" s="19"/>
     </row>
-    <row r="90" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>993</v>
       </c>
@@ -20631,7 +20634,7 @@
       <c r="Q90" s="58"/>
       <c r="R90" s="19"/>
     </row>
-    <row r="91" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>994</v>
       </c>
@@ -20683,7 +20686,7 @@
       <c r="Q91" s="58"/>
       <c r="R91" s="19"/>
     </row>
-    <row r="92" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>987</v>
       </c>
@@ -20735,7 +20738,7 @@
       <c r="Q92" s="58"/>
       <c r="R92" s="19"/>
     </row>
-    <row r="93" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>988</v>
       </c>
@@ -20787,7 +20790,7 @@
       <c r="Q93" s="58"/>
       <c r="R93" s="19"/>
     </row>
-    <row r="94" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>991</v>
       </c>
@@ -20839,7 +20842,7 @@
       <c r="Q94" s="58"/>
       <c r="R94" s="19"/>
     </row>
-    <row r="95" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>990</v>
       </c>
@@ -20891,7 +20894,7 @@
       <c r="Q95" s="58"/>
       <c r="R95" s="19"/>
     </row>
-    <row r="96" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="55" t="s">
         <v>193</v>
       </c>
@@ -20913,7 +20916,7 @@
       <c r="Q96" s="57"/>
       <c r="R96" s="18"/>
     </row>
-    <row r="97" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>989</v>
       </c>
@@ -20965,7 +20968,7 @@
       <c r="Q97" s="58"/>
       <c r="R97" s="19"/>
     </row>
-    <row r="98" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>995</v>
       </c>
@@ -21017,7 +21020,7 @@
       <c r="Q98" s="58"/>
       <c r="R98" s="19"/>
     </row>
-    <row r="99" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>998</v>
       </c>
@@ -21069,7 +21072,7 @@
       <c r="Q99" s="58"/>
       <c r="R99" s="19"/>
     </row>
-    <row r="100" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>992</v>
       </c>
@@ -21121,7 +21124,7 @@
       <c r="Q100" s="58"/>
       <c r="R100" s="19"/>
     </row>
-    <row r="101" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>978</v>
       </c>
@@ -21173,7 +21176,7 @@
       <c r="Q101" s="58"/>
       <c r="R101" s="19"/>
     </row>
-    <row r="102" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>979</v>
       </c>
@@ -21225,7 +21228,7 @@
       <c r="Q102" s="58"/>
       <c r="R102" s="19"/>
     </row>
-    <row r="103" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>999</v>
       </c>
@@ -21277,7 +21280,7 @@
       <c r="Q103" s="58"/>
       <c r="R103" s="19"/>
     </row>
-    <row r="104" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1001</v>
       </c>
@@ -21329,7 +21332,7 @@
       <c r="Q104" s="58"/>
       <c r="R104" s="19"/>
     </row>
-    <row r="105" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1000</v>
       </c>
@@ -21381,7 +21384,7 @@
       <c r="Q105" s="58"/>
       <c r="R105" s="19"/>
     </row>
-    <row r="106" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1003</v>
       </c>
@@ -21433,7 +21436,7 @@
       <c r="Q106" s="58"/>
       <c r="R106" s="19"/>
     </row>
-    <row r="107" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>1004</v>
       </c>
@@ -21485,7 +21488,7 @@
       <c r="Q107" s="58"/>
       <c r="R107" s="19"/>
     </row>
-    <row r="108" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="55" t="s">
         <v>227</v>
       </c>
@@ -21507,7 +21510,7 @@
       <c r="Q108" s="57"/>
       <c r="R108" s="18"/>
     </row>
-    <row r="109" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>1008</v>
       </c>
@@ -21559,7 +21562,7 @@
       <c r="Q109" s="58"/>
       <c r="R109" s="19"/>
     </row>
-    <row r="110" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>1002</v>
       </c>
@@ -21611,7 +21614,7 @@
       <c r="Q110" s="58"/>
       <c r="R110" s="19"/>
     </row>
-    <row r="111" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>1015</v>
       </c>
@@ -21663,7 +21666,7 @@
       <c r="Q111" s="58"/>
       <c r="R111" s="19"/>
     </row>
-    <row r="112" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>1014</v>
       </c>
@@ -21715,7 +21718,7 @@
       <c r="Q112" s="58"/>
       <c r="R112" s="19"/>
     </row>
-    <row r="113" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>1006</v>
       </c>
@@ -21767,7 +21770,7 @@
       <c r="Q113" s="75"/>
       <c r="R113" s="21"/>
     </row>
-    <row r="114" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>1009</v>
       </c>
@@ -21819,7 +21822,7 @@
       <c r="Q114" s="75"/>
       <c r="R114" s="21"/>
     </row>
-    <row r="115" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>1011</v>
       </c>
@@ -21869,7 +21872,7 @@
       <c r="Q115" s="75"/>
       <c r="R115" s="21"/>
     </row>
-    <row r="116" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>1007</v>
       </c>
@@ -21921,7 +21924,7 @@
       <c r="Q116" s="58"/>
       <c r="R116" s="19"/>
     </row>
-    <row r="117" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>1013</v>
       </c>
@@ -21973,7 +21976,7 @@
       <c r="Q117" s="58"/>
       <c r="R117" s="19"/>
     </row>
-    <row r="118" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>1012</v>
       </c>
@@ -22025,7 +22028,7 @@
       <c r="Q118" s="58"/>
       <c r="R118" s="19"/>
     </row>
-    <row r="119" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>1016</v>
       </c>
@@ -22077,7 +22080,7 @@
       <c r="Q119" s="58"/>
       <c r="R119" s="19"/>
     </row>
-    <row r="120" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>1017</v>
       </c>
@@ -22129,7 +22132,7 @@
       <c r="Q120" s="58"/>
       <c r="R120" s="19"/>
     </row>
-    <row r="121" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="55" t="s">
         <v>229</v>
       </c>
@@ -22151,7 +22154,7 @@
       <c r="Q121" s="57"/>
       <c r="R121" s="18"/>
     </row>
-    <row r="122" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>1010</v>
       </c>
@@ -22203,7 +22206,7 @@
       <c r="Q122" s="58"/>
       <c r="R122" s="19"/>
     </row>
-    <row r="123" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>1020</v>
       </c>
@@ -22255,7 +22258,7 @@
       <c r="Q123" s="58"/>
       <c r="R123" s="19"/>
     </row>
-    <row r="124" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>1005</v>
       </c>
@@ -22307,7 +22310,7 @@
       <c r="Q124" s="58"/>
       <c r="R124" s="19"/>
     </row>
-    <row r="125" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>1019</v>
       </c>
@@ -22359,7 +22362,7 @@
       <c r="Q125" s="58"/>
       <c r="R125" s="19"/>
     </row>
-    <row r="126" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>1018</v>
       </c>
@@ -22411,7 +22414,7 @@
       <c r="Q126" s="58"/>
       <c r="R126" s="19"/>
     </row>
-    <row r="127" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="55" t="s">
         <v>264</v>
       </c>
@@ -22433,7 +22436,7 @@
       <c r="Q127" s="57"/>
       <c r="R127" s="18"/>
     </row>
-    <row r="128" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>1021</v>
       </c>
@@ -22485,7 +22488,7 @@
       <c r="Q128" s="58"/>
       <c r="R128" s="19"/>
     </row>
-    <row r="129" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>1022</v>
       </c>
@@ -22537,7 +22540,7 @@
       <c r="Q129" s="58"/>
       <c r="R129" s="19"/>
     </row>
-    <row r="130" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>1023</v>
       </c>
@@ -22589,7 +22592,7 @@
       <c r="Q130" s="58"/>
       <c r="R130" s="19"/>
     </row>
-    <row r="131" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>1025</v>
       </c>
@@ -22641,7 +22644,7 @@
       <c r="Q131" s="58"/>
       <c r="R131" s="19"/>
     </row>
-    <row r="132" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>1026</v>
       </c>
@@ -22693,7 +22696,7 @@
       <c r="Q132" s="58"/>
       <c r="R132" s="19"/>
     </row>
-    <row r="133" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>1027</v>
       </c>
@@ -22745,7 +22748,7 @@
       <c r="Q133" s="58"/>
       <c r="R133" s="19"/>
     </row>
-    <row r="134" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>974</v>
       </c>
@@ -22797,7 +22800,7 @@
       <c r="Q134" s="58"/>
       <c r="R134" s="19"/>
     </row>
-    <row r="135" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>1028</v>
       </c>
@@ -22849,7 +22852,7 @@
       <c r="Q135" s="58"/>
       <c r="R135" s="19"/>
     </row>
-    <row r="136" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>1029</v>
       </c>
@@ -22901,7 +22904,7 @@
       <c r="Q136" s="58"/>
       <c r="R136" s="19"/>
     </row>
-    <row r="137" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>1030</v>
       </c>
@@ -22953,7 +22956,7 @@
       <c r="Q137" s="58"/>
       <c r="R137" s="19"/>
     </row>
-    <row r="138" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="55" t="s">
         <v>266</v>
       </c>
@@ -22975,7 +22978,7 @@
       <c r="Q138" s="57"/>
       <c r="R138" s="18"/>
     </row>
-    <row r="139" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>1031</v>
       </c>
@@ -23027,7 +23030,7 @@
       <c r="Q139" s="58"/>
       <c r="R139" s="19"/>
     </row>
-    <row r="140" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>1032</v>
       </c>
@@ -23079,7 +23082,7 @@
       <c r="Q140" s="58"/>
       <c r="R140" s="19"/>
     </row>
-    <row r="141" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>1033</v>
       </c>
@@ -23131,7 +23134,7 @@
       <c r="Q141" s="58"/>
       <c r="R141" s="19"/>
     </row>
-    <row r="142" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>1034</v>
       </c>
@@ -23183,7 +23186,7 @@
       <c r="Q142" s="58"/>
       <c r="R142" s="19"/>
     </row>
-    <row r="143" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>1035</v>
       </c>
@@ -23235,7 +23238,7 @@
       <c r="Q143" s="58"/>
       <c r="R143" s="19"/>
     </row>
-    <row r="144" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>1024</v>
       </c>
@@ -23287,7 +23290,7 @@
       <c r="Q144" s="58"/>
       <c r="R144" s="19"/>
     </row>
-    <row r="145" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>1036</v>
       </c>
@@ -23339,7 +23342,7 @@
       <c r="Q145" s="58"/>
       <c r="R145" s="19"/>
     </row>
-    <row r="146" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>1037</v>
       </c>
@@ -23391,7 +23394,7 @@
       <c r="Q146" s="58"/>
       <c r="R146" s="19"/>
     </row>
-    <row r="147" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>1039</v>
       </c>
@@ -23443,7 +23446,7 @@
       <c r="Q147" s="58"/>
       <c r="R147" s="19"/>
     </row>
-    <row r="148" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="55" t="s">
         <v>296</v>
       </c>
@@ -23465,7 +23468,7 @@
       <c r="Q148" s="57"/>
       <c r="R148" s="18"/>
     </row>
-    <row r="149" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>1040</v>
       </c>
@@ -23517,7 +23520,7 @@
       <c r="Q149" s="58"/>
       <c r="R149" s="19"/>
     </row>
-    <row r="150" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>1041</v>
       </c>
@@ -23569,7 +23572,7 @@
       <c r="Q150" s="58"/>
       <c r="R150" s="19"/>
     </row>
-    <row r="151" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
         <v>1043</v>
       </c>
@@ -23621,7 +23624,7 @@
       <c r="Q151" s="58"/>
       <c r="R151" s="19"/>
     </row>
-    <row r="152" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10">
         <v>1044</v>
       </c>
@@ -23673,7 +23676,7 @@
       <c r="Q152" s="58"/>
       <c r="R152" s="19"/>
     </row>
-    <row r="153" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10">
         <v>1045</v>
       </c>
@@ -23725,7 +23728,7 @@
       <c r="Q153" s="58"/>
       <c r="R153" s="19"/>
     </row>
-    <row r="154" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>1038</v>
       </c>
@@ -23777,7 +23780,7 @@
       <c r="Q154" s="58"/>
       <c r="R154" s="19"/>
     </row>
-    <row r="155" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>1046</v>
       </c>
@@ -23829,7 +23832,7 @@
       <c r="Q155" s="58"/>
       <c r="R155" s="19"/>
     </row>
-    <row r="156" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>567</v>
       </c>
@@ -23881,7 +23884,7 @@
       <c r="Q156" s="58"/>
       <c r="R156" s="19"/>
     </row>
-    <row r="157" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>1049</v>
       </c>
@@ -23933,7 +23936,7 @@
       <c r="Q157" s="58"/>
       <c r="R157" s="19"/>
     </row>
-    <row r="158" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="55" t="s">
         <v>304</v>
       </c>
@@ -23955,7 +23958,7 @@
       <c r="Q158" s="57"/>
       <c r="R158" s="18"/>
     </row>
-    <row r="159" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>1042</v>
       </c>
@@ -24007,7 +24010,7 @@
       <c r="Q159" s="58"/>
       <c r="R159" s="19"/>
     </row>
-    <row r="160" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>1047</v>
       </c>
@@ -24059,7 +24062,7 @@
       <c r="Q160" s="58"/>
       <c r="R160" s="19"/>
     </row>
-    <row r="161" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10">
         <v>1055</v>
       </c>
@@ -24111,7 +24114,7 @@
       <c r="Q161" s="58"/>
       <c r="R161" s="19"/>
     </row>
-    <row r="162" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10">
         <v>1056</v>
       </c>
@@ -24163,7 +24166,7 @@
       <c r="Q162" s="58"/>
       <c r="R162" s="19"/>
     </row>
-    <row r="163" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10">
         <v>1053</v>
       </c>
@@ -24215,7 +24218,7 @@
       <c r="Q163" s="58"/>
       <c r="R163" s="19"/>
     </row>
-    <row r="164" spans="1:19" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="55" t="s">
         <v>305</v>
       </c>
@@ -24237,7 +24240,7 @@
       <c r="Q164" s="57"/>
       <c r="R164" s="18"/>
     </row>
-    <row r="165" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>1050</v>
       </c>
@@ -24289,7 +24292,7 @@
       <c r="Q165" s="58"/>
       <c r="R165" s="19"/>
     </row>
-    <row r="166" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10">
         <v>1051</v>
       </c>
@@ -24341,7 +24344,7 @@
       <c r="Q166" s="58"/>
       <c r="R166" s="19"/>
     </row>
-    <row r="167" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10">
         <v>1058</v>
       </c>
@@ -24393,7 +24396,7 @@
       <c r="Q167" s="58"/>
       <c r="R167" s="19"/>
     </row>
-    <row r="168" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10">
         <v>1059</v>
       </c>
@@ -24445,7 +24448,7 @@
       <c r="Q168" s="58"/>
       <c r="R168" s="19"/>
     </row>
-    <row r="169" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10">
         <v>1060</v>
       </c>
@@ -24497,7 +24500,7 @@
       <c r="Q169" s="58"/>
       <c r="R169" s="19"/>
     </row>
-    <row r="170" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10">
         <v>1062</v>
       </c>
@@ -24549,7 +24552,7 @@
       <c r="Q170" s="58"/>
       <c r="R170" s="19"/>
     </row>
-    <row r="171" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10">
         <v>1066</v>
       </c>
@@ -24601,7 +24604,7 @@
       <c r="Q171" s="58"/>
       <c r="R171" s="19"/>
     </row>
-    <row r="172" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10">
         <v>1063</v>
       </c>
@@ -24653,7 +24656,7 @@
       <c r="Q172" s="58"/>
       <c r="R172" s="19"/>
     </row>
-    <row r="173" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>1054</v>
       </c>
@@ -24705,7 +24708,7 @@
       <c r="Q173" s="58"/>
       <c r="R173" s="19"/>
     </row>
-    <row r="174" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>1061</v>
       </c>
@@ -24757,7 +24760,7 @@
       <c r="Q174" s="58"/>
       <c r="R174" s="19"/>
     </row>
-    <row r="175" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>1072</v>
       </c>
@@ -24809,7 +24812,7 @@
       <c r="Q175" s="58"/>
       <c r="R175" s="19"/>
     </row>
-    <row r="176" spans="1:19" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="55" t="s">
         <v>331</v>
       </c>
@@ -24835,7 +24838,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>1069</v>
       </c>
@@ -24887,7 +24890,7 @@
       <c r="Q177" s="58"/>
       <c r="R177" s="19"/>
     </row>
-    <row r="178" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>1068</v>
       </c>
@@ -24939,7 +24942,7 @@
       <c r="Q178" s="58"/>
       <c r="R178" s="19"/>
     </row>
-    <row r="179" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10">
         <v>1067</v>
       </c>
@@ -24991,7 +24994,7 @@
       <c r="Q179" s="58"/>
       <c r="R179" s="19"/>
     </row>
-    <row r="180" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
         <v>1070</v>
       </c>
@@ -25043,7 +25046,7 @@
       <c r="Q180" s="58"/>
       <c r="R180" s="19"/>
     </row>
-    <row r="181" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10">
         <v>1076</v>
       </c>
@@ -25096,7 +25099,7 @@
       <c r="R181" s="19"/>
       <c r="S181" s="15"/>
     </row>
-    <row r="182" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10">
         <v>1077</v>
       </c>
@@ -25149,7 +25152,7 @@
       <c r="R182" s="19"/>
       <c r="S182" s="15"/>
     </row>
-    <row r="183" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10">
         <v>1078</v>
       </c>
@@ -25204,7 +25207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10">
         <v>1064</v>
       </c>
@@ -25259,7 +25262,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="10">
         <v>1071</v>
       </c>
@@ -25314,7 +25317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10">
         <v>1082</v>
       </c>
@@ -25369,7 +25372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10">
         <v>1079</v>
       </c>
@@ -25424,7 +25427,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10">
         <v>1081</v>
       </c>
@@ -25479,7 +25482,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10">
         <v>1094</v>
       </c>
@@ -25531,7 +25534,7 @@
       <c r="Q189" s="58"/>
       <c r="R189" s="19"/>
     </row>
-    <row r="190" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10">
         <v>1080</v>
       </c>
@@ -25586,7 +25589,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="55" t="s">
         <v>88</v>
       </c>
@@ -25609,7 +25612,7 @@
       <c r="R191" s="18"/>
       <c r="S191" s="28"/>
     </row>
-    <row r="192" spans="1:19" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>1084</v>
       </c>
@@ -25662,7 +25665,7 @@
       <c r="R192" s="19"/>
       <c r="S192" s="29"/>
     </row>
-    <row r="193" spans="1:19" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:19" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>1085</v>
       </c>
@@ -25715,7 +25718,7 @@
       <c r="R193" s="19"/>
       <c r="S193" s="29"/>
     </row>
-    <row r="194" spans="1:19" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:19" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>1098</v>
       </c>
@@ -25768,7 +25771,7 @@
       <c r="R194" s="19"/>
       <c r="S194" s="29"/>
     </row>
-    <row r="195" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>1083</v>
       </c>
@@ -25821,7 +25824,7 @@
       <c r="R195" s="19"/>
       <c r="S195" s="29"/>
     </row>
-    <row r="196" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>1073</v>
       </c>
@@ -25874,7 +25877,7 @@
       <c r="R196" s="19"/>
       <c r="S196" s="30"/>
     </row>
-    <row r="197" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>1087</v>
       </c>
@@ -25920,16 +25923,16 @@
       <c r="O197" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P197" s="76">
+      <c r="P197" s="71">
         <v>43320</v>
       </c>
-      <c r="Q197" s="77"/>
+      <c r="Q197" s="72"/>
       <c r="R197" s="24">
         <v>43322</v>
       </c>
       <c r="S197" s="29"/>
     </row>
-    <row r="198" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>1074</v>
       </c>
@@ -25982,7 +25985,7 @@
       <c r="R198" s="19"/>
       <c r="S198" s="31"/>
     </row>
-    <row r="199" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>1075</v>
       </c>
@@ -26028,16 +26031,16 @@
       <c r="O199" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P199" s="76">
+      <c r="P199" s="71">
         <v>43322</v>
       </c>
-      <c r="Q199" s="77"/>
+      <c r="Q199" s="72"/>
       <c r="R199" s="24">
         <v>43327</v>
       </c>
       <c r="S199" s="29"/>
     </row>
-    <row r="200" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>1072</v>
       </c>
@@ -26092,7 +26095,7 @@
       </c>
       <c r="S200" s="27"/>
     </row>
-    <row r="201" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>1065</v>
       </c>
@@ -26145,7 +26148,7 @@
       <c r="R201" s="19"/>
       <c r="S201" s="27"/>
     </row>
-    <row r="202" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>1086</v>
       </c>
@@ -26200,7 +26203,7 @@
       </c>
       <c r="S202" s="32"/>
     </row>
-    <row r="203" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>1092</v>
       </c>
@@ -26246,16 +26249,16 @@
       <c r="O203" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="P203" s="76">
+      <c r="P203" s="71">
         <v>43329</v>
       </c>
-      <c r="Q203" s="77"/>
+      <c r="Q203" s="72"/>
       <c r="R203" s="24">
         <v>43339</v>
       </c>
       <c r="S203" s="27"/>
     </row>
-    <row r="204" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>1099</v>
       </c>
@@ -26308,7 +26311,7 @@
       <c r="R204" s="33"/>
       <c r="S204" s="27"/>
     </row>
-    <row r="205" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>1096</v>
       </c>
@@ -26361,7 +26364,7 @@
       <c r="R205" s="19"/>
       <c r="S205" s="31"/>
     </row>
-    <row r="206" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>1095</v>
       </c>
@@ -26416,7 +26419,7 @@
       </c>
       <c r="S206" s="31"/>
     </row>
-    <row r="207" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>1091</v>
       </c>
@@ -26469,7 +26472,7 @@
       <c r="R207" s="19"/>
       <c r="S207" s="31"/>
     </row>
-    <row r="208" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>1109</v>
       </c>
@@ -26522,7 +26525,7 @@
       <c r="R208" s="33"/>
       <c r="S208" s="31"/>
     </row>
-    <row r="209" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>1063</v>
       </c>
@@ -26575,7 +26578,7 @@
       <c r="R209" s="19"/>
       <c r="S209" s="31"/>
     </row>
-    <row r="210" spans="1:19" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:19" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="55" t="s">
         <v>92</v>
       </c>
@@ -26597,7 +26600,7 @@
       <c r="Q210" s="57"/>
       <c r="R210" s="18"/>
     </row>
-    <row r="211" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>1093</v>
       </c>
@@ -26649,7 +26652,7 @@
       <c r="Q211" s="58"/>
       <c r="R211" s="26"/>
     </row>
-    <row r="212" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>1097</v>
       </c>
@@ -26701,7 +26704,7 @@
       <c r="Q212" s="58"/>
       <c r="R212" s="26"/>
     </row>
-    <row r="213" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>1099</v>
       </c>
@@ -26753,7 +26756,7 @@
       <c r="Q213" s="58"/>
       <c r="R213" s="26"/>
     </row>
-    <row r="214" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>1100</v>
       </c>
@@ -26805,7 +26808,7 @@
       <c r="Q214" s="58"/>
       <c r="R214" s="26"/>
     </row>
-    <row r="215" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>1102</v>
       </c>
@@ -26857,7 +26860,7 @@
       <c r="Q215" s="58"/>
       <c r="R215" s="26"/>
     </row>
-    <row r="216" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>1103</v>
       </c>
@@ -26909,7 +26912,7 @@
       <c r="Q216" s="58"/>
       <c r="R216" s="26"/>
     </row>
-    <row r="217" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>1089</v>
       </c>
@@ -26961,7 +26964,7 @@
       <c r="Q217" s="58"/>
       <c r="R217" s="26"/>
     </row>
-    <row r="218" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>1113</v>
       </c>
@@ -27013,7 +27016,7 @@
       <c r="Q218" s="58"/>
       <c r="R218" s="26"/>
     </row>
-    <row r="219" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>1114</v>
       </c>
@@ -27065,7 +27068,7 @@
       <c r="Q219" s="58"/>
       <c r="R219" s="26"/>
     </row>
-    <row r="220" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>1105</v>
       </c>
@@ -27117,7 +27120,7 @@
       <c r="Q220" s="58"/>
       <c r="R220" s="26"/>
     </row>
-    <row r="221" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>1115</v>
       </c>
@@ -27169,7 +27172,7 @@
       <c r="Q221" s="58"/>
       <c r="R221" s="26"/>
     </row>
-    <row r="222" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>1104</v>
       </c>
@@ -27221,7 +27224,7 @@
       <c r="Q222" s="58"/>
       <c r="R222" s="26"/>
     </row>
-    <row r="223" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>1127</v>
       </c>
@@ -27273,7 +27276,7 @@
       <c r="Q223" s="58"/>
       <c r="R223" s="26"/>
     </row>
-    <row r="224" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>1128</v>
       </c>
@@ -27325,7 +27328,7 @@
       <c r="Q224" s="58"/>
       <c r="R224" s="26"/>
     </row>
-    <row r="225" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>1136</v>
       </c>
@@ -27377,7 +27380,7 @@
       <c r="Q225" s="58"/>
       <c r="R225" s="26"/>
     </row>
-    <row r="226" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>1085</v>
       </c>
@@ -27429,7 +27432,7 @@
       <c r="Q226" s="58"/>
       <c r="R226" s="26"/>
     </row>
-    <row r="227" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="55" t="s">
         <v>171</v>
       </c>
@@ -27451,7 +27454,7 @@
       <c r="Q227" s="57"/>
       <c r="R227" s="27"/>
     </row>
-    <row r="228" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="36"/>
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
@@ -27467,10 +27470,10 @@
       <c r="M228" s="13"/>
       <c r="N228" s="13"/>
       <c r="O228" s="13"/>
-      <c r="P228" s="71"/>
-      <c r="Q228" s="72"/>
-    </row>
-    <row r="229" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P228" s="76"/>
+      <c r="Q228" s="77"/>
+    </row>
+    <row r="229" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="36">
         <v>1131</v>
       </c>
@@ -27516,12 +27519,12 @@
       <c r="O229" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="P229" s="71">
+      <c r="P229" s="76">
         <v>43378</v>
       </c>
-      <c r="Q229" s="72"/>
-    </row>
-    <row r="230" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q229" s="77"/>
+    </row>
+    <row r="230" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="36">
         <v>1132</v>
       </c>
@@ -27567,12 +27570,12 @@
       <c r="O230" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="P230" s="71">
+      <c r="P230" s="76">
         <v>43378</v>
       </c>
-      <c r="Q230" s="72"/>
-    </row>
-    <row r="231" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q230" s="77"/>
+    </row>
+    <row r="231" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>1125</v>
       </c>
@@ -27623,7 +27626,7 @@
       </c>
       <c r="Q231" s="58"/>
     </row>
-    <row r="232" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>1126</v>
       </c>
@@ -27674,7 +27677,7 @@
       </c>
       <c r="Q232" s="58"/>
     </row>
-    <row r="233" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>1101</v>
       </c>
@@ -27725,7 +27728,7 @@
       </c>
       <c r="Q233" s="58"/>
     </row>
-    <row r="234" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>1135</v>
       </c>
@@ -27776,7 +27779,7 @@
       </c>
       <c r="Q234" s="58"/>
     </row>
-    <row r="235" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>1082</v>
       </c>
@@ -27827,7 +27830,7 @@
       </c>
       <c r="Q235" s="58"/>
     </row>
-    <row r="236" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>1137</v>
       </c>
@@ -27878,7 +27881,7 @@
       </c>
       <c r="Q236" s="58"/>
     </row>
-    <row r="237" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>1127</v>
       </c>
@@ -27929,7 +27932,7 @@
       </c>
       <c r="Q237" s="58"/>
     </row>
-    <row r="238" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>1129</v>
       </c>
@@ -27980,7 +27983,7 @@
       </c>
       <c r="Q238" s="58"/>
     </row>
-    <row r="239" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>1130</v>
       </c>
@@ -28031,7 +28034,7 @@
       </c>
       <c r="Q239" s="58"/>
     </row>
-    <row r="240" spans="1:18" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>1153</v>
       </c>
@@ -28082,7 +28085,7 @@
       </c>
       <c r="Q240" s="58"/>
     </row>
-    <row r="241" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>1156</v>
       </c>
@@ -28133,7 +28136,7 @@
       </c>
       <c r="Q241" s="58"/>
     </row>
-    <row r="242" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>1117</v>
       </c>
@@ -28184,7 +28187,7 @@
       </c>
       <c r="Q242" s="58"/>
     </row>
-    <row r="243" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>1137</v>
       </c>
@@ -28235,7 +28238,7 @@
       </c>
       <c r="Q243" s="58"/>
     </row>
-    <row r="244" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>1106</v>
       </c>
@@ -28286,7 +28289,7 @@
       </c>
       <c r="Q244" s="58"/>
     </row>
-    <row r="245" spans="1:17" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="55" t="s">
         <v>193</v>
       </c>
@@ -28307,7 +28310,7 @@
       <c r="P245" s="56"/>
       <c r="Q245" s="57"/>
     </row>
-    <row r="246" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="36">
         <v>1120</v>
       </c>
@@ -28353,12 +28356,12 @@
       <c r="O246" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="P246" s="71">
+      <c r="P246" s="76">
         <v>43405</v>
       </c>
-      <c r="Q246" s="72"/>
-    </row>
-    <row r="247" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q246" s="77"/>
+    </row>
+    <row r="247" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="36">
         <v>1145</v>
       </c>
@@ -28404,12 +28407,12 @@
       <c r="O247" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="P247" s="71">
+      <c r="P247" s="76">
         <v>43405</v>
       </c>
-      <c r="Q247" s="72"/>
-    </row>
-    <row r="248" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q247" s="77"/>
+    </row>
+    <row r="248" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="36">
         <v>1138</v>
       </c>
@@ -28455,12 +28458,12 @@
       <c r="O248" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="P248" s="71">
+      <c r="P248" s="76">
         <v>43406</v>
       </c>
-      <c r="Q248" s="72"/>
-    </row>
-    <row r="249" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q248" s="77"/>
+    </row>
+    <row r="249" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="36">
         <v>1134</v>
       </c>
@@ -28506,12 +28509,12 @@
       <c r="O249" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="P249" s="71">
+      <c r="P249" s="76">
         <v>43406</v>
       </c>
-      <c r="Q249" s="72"/>
-    </row>
-    <row r="250" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q249" s="77"/>
+    </row>
+    <row r="250" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="36">
         <v>1141</v>
       </c>
@@ -28557,12 +28560,12 @@
       <c r="O250" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="P250" s="71">
+      <c r="P250" s="76">
         <v>43409</v>
       </c>
-      <c r="Q250" s="72"/>
-    </row>
-    <row r="251" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q250" s="77"/>
+    </row>
+    <row r="251" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="36">
         <v>1142</v>
       </c>
@@ -28608,12 +28611,12 @@
       <c r="O251" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="P251" s="71">
+      <c r="P251" s="76">
         <v>43411</v>
       </c>
-      <c r="Q251" s="72"/>
-    </row>
-    <row r="252" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q251" s="77"/>
+    </row>
+    <row r="252" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>1139</v>
       </c>
@@ -28664,7 +28667,7 @@
       </c>
       <c r="Q252" s="58"/>
     </row>
-    <row r="253" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>1140</v>
       </c>
@@ -28715,7 +28718,7 @@
       </c>
       <c r="Q253" s="58"/>
     </row>
-    <row r="254" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>1143</v>
       </c>
@@ -28766,7 +28769,7 @@
       </c>
       <c r="Q254" s="58"/>
     </row>
-    <row r="255" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>1144</v>
       </c>
@@ -28817,7 +28820,7 @@
       </c>
       <c r="Q255" s="58"/>
     </row>
-    <row r="256" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>1118</v>
       </c>
@@ -28868,7 +28871,7 @@
       </c>
       <c r="Q256" s="58"/>
     </row>
-    <row r="257" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>1156</v>
       </c>
@@ -28919,7 +28922,7 @@
       </c>
       <c r="Q257" s="58"/>
     </row>
-    <row r="258" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>1107</v>
       </c>
@@ -28970,7 +28973,7 @@
       </c>
       <c r="Q258" s="58"/>
     </row>
-    <row r="259" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>1147</v>
       </c>
@@ -29021,7 +29024,7 @@
       </c>
       <c r="Q259" s="58"/>
     </row>
-    <row r="260" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>1148</v>
       </c>
@@ -29072,7 +29075,7 @@
       </c>
       <c r="Q260" s="58"/>
     </row>
-    <row r="261" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>1149</v>
       </c>
@@ -29123,7 +29126,7 @@
       </c>
       <c r="Q261" s="58"/>
     </row>
-    <row r="262" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>1150</v>
       </c>
@@ -29174,7 +29177,7 @@
       </c>
       <c r="Q262" s="58"/>
     </row>
-    <row r="263" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>1119</v>
       </c>
@@ -29225,7 +29228,7 @@
       </c>
       <c r="Q263" s="58"/>
     </row>
-    <row r="264" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>1122</v>
       </c>
@@ -29276,7 +29279,7 @@
       </c>
       <c r="Q264" s="58"/>
     </row>
-    <row r="265" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>1121</v>
       </c>
@@ -29327,7 +29330,7 @@
       </c>
       <c r="Q265" s="58"/>
     </row>
-    <row r="266" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>1154</v>
       </c>
@@ -29378,7 +29381,7 @@
       </c>
       <c r="Q266" s="58"/>
     </row>
-    <row r="267" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>1155</v>
       </c>
@@ -29429,7 +29432,7 @@
       </c>
       <c r="Q267" s="58"/>
     </row>
-    <row r="268" spans="1:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>1108</v>
       </c>
@@ -29480,7 +29483,7 @@
       </c>
       <c r="Q268" s="58"/>
     </row>
-    <row r="269" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="55" t="s">
         <v>227</v>
       </c>
@@ -29501,7 +29504,7 @@
       <c r="P269" s="56"/>
       <c r="Q269" s="57"/>
     </row>
-    <row r="270" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="36">
         <v>1157</v>
       </c>
@@ -29547,12 +29550,12 @@
       <c r="O270" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P270" s="71">
+      <c r="P270" s="76">
         <v>43437</v>
       </c>
-      <c r="Q270" s="72"/>
-    </row>
-    <row r="271" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q270" s="77"/>
+    </row>
+    <row r="271" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="36">
         <v>1133</v>
       </c>
@@ -29598,12 +29601,12 @@
       <c r="O271" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="P271" s="71">
+      <c r="P271" s="76">
         <v>43439</v>
       </c>
-      <c r="Q271" s="72"/>
-    </row>
-    <row r="272" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q271" s="77"/>
+    </row>
+    <row r="272" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="36">
         <v>1151</v>
       </c>
@@ -29649,12 +29652,12 @@
       <c r="O272" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P272" s="71">
+      <c r="P272" s="76">
         <v>43441</v>
       </c>
-      <c r="Q272" s="72"/>
-    </row>
-    <row r="273" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q272" s="77"/>
+    </row>
+    <row r="273" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>1152</v>
       </c>
@@ -29705,7 +29708,7 @@
       </c>
       <c r="Q273" s="58"/>
     </row>
-    <row r="274" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>1161</v>
       </c>
@@ -29756,7 +29759,7 @@
       </c>
       <c r="Q274" s="58"/>
     </row>
-    <row r="275" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>1156</v>
       </c>
@@ -29807,7 +29810,7 @@
       </c>
       <c r="Q275" s="58"/>
     </row>
-    <row r="276" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>1146</v>
       </c>
@@ -29858,7 +29861,7 @@
       </c>
       <c r="Q276" s="58"/>
     </row>
-    <row r="277" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>1164</v>
       </c>
@@ -29909,7 +29912,7 @@
       </c>
       <c r="Q277" s="58"/>
     </row>
-    <row r="278" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>1068</v>
       </c>
@@ -29960,7 +29963,7 @@
       </c>
       <c r="Q278" s="58"/>
     </row>
-    <row r="279" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>1124</v>
       </c>
@@ -30011,7 +30014,7 @@
       </c>
       <c r="Q279" s="58"/>
     </row>
-    <row r="280" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>1158</v>
       </c>
@@ -30062,7 +30065,7 @@
       </c>
       <c r="Q280" s="58"/>
     </row>
-    <row r="281" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>1155</v>
       </c>
@@ -30113,7 +30116,7 @@
       </c>
       <c r="Q281" s="58"/>
     </row>
-    <row r="282" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>1075</v>
       </c>
@@ -30164,7 +30167,7 @@
       </c>
       <c r="Q282" s="58"/>
     </row>
-    <row r="283" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -30183,7 +30186,7 @@
       <c r="P283" s="53"/>
       <c r="Q283" s="58"/>
     </row>
-    <row r="284" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -30202,7 +30205,7 @@
       <c r="P284" s="53"/>
       <c r="Q284" s="58"/>
     </row>
-    <row r="285" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="55" t="s">
         <v>229</v>
       </c>
@@ -30223,7 +30226,7 @@
       <c r="P285" s="56"/>
       <c r="Q285" s="57"/>
     </row>
-    <row r="286" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="36">
         <v>1165</v>
       </c>
@@ -30269,12 +30272,12 @@
       <c r="O286" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="P286" s="71">
+      <c r="P286" s="76">
         <v>43476</v>
       </c>
-      <c r="Q286" s="72"/>
-    </row>
-    <row r="287" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q286" s="77"/>
+    </row>
+    <row r="287" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="36">
         <v>1168</v>
       </c>
@@ -30320,12 +30323,12 @@
       <c r="O287" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="P287" s="71">
+      <c r="P287" s="76">
         <v>43481</v>
       </c>
-      <c r="Q287" s="72"/>
-    </row>
-    <row r="288" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q287" s="77"/>
+    </row>
+    <row r="288" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="36">
         <v>1166</v>
       </c>
@@ -30371,12 +30374,12 @@
       <c r="O288" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="P288" s="71">
+      <c r="P288" s="76">
         <v>43483</v>
       </c>
-      <c r="Q288" s="72"/>
-    </row>
-    <row r="289" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q288" s="77"/>
+    </row>
+    <row r="289" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>1167</v>
       </c>
@@ -30427,7 +30430,7 @@
       </c>
       <c r="Q289" s="58"/>
     </row>
-    <row r="290" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>1169</v>
       </c>
@@ -30478,7 +30481,7 @@
       </c>
       <c r="Q290" s="58"/>
     </row>
-    <row r="291" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>1159</v>
       </c>
@@ -30529,7 +30532,7 @@
       </c>
       <c r="Q291" s="58"/>
     </row>
-    <row r="292" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>1163</v>
       </c>
@@ -30580,7 +30583,7 @@
       </c>
       <c r="Q292" s="58"/>
     </row>
-    <row r="293" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -30599,7 +30602,7 @@
       <c r="P293" s="53"/>
       <c r="Q293" s="58"/>
     </row>
-    <row r="294" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -30618,7 +30621,7 @@
       <c r="P294" s="53"/>
       <c r="Q294" s="58"/>
     </row>
-    <row r="295" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -30637,7 +30640,7 @@
       <c r="P295" s="53"/>
       <c r="Q295" s="58"/>
     </row>
-    <row r="296" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -30656,7 +30659,7 @@
       <c r="P296" s="53"/>
       <c r="Q296" s="58"/>
     </row>
-    <row r="297" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -30675,7 +30678,7 @@
       <c r="P297" s="53"/>
       <c r="Q297" s="58"/>
     </row>
-    <row r="298" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -30694,7 +30697,7 @@
       <c r="P298" s="53"/>
       <c r="Q298" s="58"/>
     </row>
-    <row r="299" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -30715,6 +30718,291 @@
     </row>
   </sheetData>
   <mergeCells count="309">
+    <mergeCell ref="P296:Q296"/>
+    <mergeCell ref="P297:Q297"/>
+    <mergeCell ref="P298:Q298"/>
+    <mergeCell ref="P299:Q299"/>
+    <mergeCell ref="P278:Q278"/>
+    <mergeCell ref="P287:Q287"/>
+    <mergeCell ref="P288:Q288"/>
+    <mergeCell ref="P289:Q289"/>
+    <mergeCell ref="P290:Q290"/>
+    <mergeCell ref="P291:Q291"/>
+    <mergeCell ref="P292:Q292"/>
+    <mergeCell ref="P293:Q293"/>
+    <mergeCell ref="P294:Q294"/>
+    <mergeCell ref="P295:Q295"/>
+    <mergeCell ref="A285:Q285"/>
+    <mergeCell ref="P286:Q286"/>
+    <mergeCell ref="P279:Q279"/>
+    <mergeCell ref="P280:Q280"/>
+    <mergeCell ref="P281:Q281"/>
+    <mergeCell ref="P282:Q282"/>
+    <mergeCell ref="P283:Q283"/>
+    <mergeCell ref="P284:Q284"/>
+    <mergeCell ref="A269:Q269"/>
+    <mergeCell ref="P270:Q270"/>
+    <mergeCell ref="P271:Q271"/>
+    <mergeCell ref="P272:Q272"/>
+    <mergeCell ref="P273:Q273"/>
+    <mergeCell ref="P274:Q274"/>
+    <mergeCell ref="P275:Q275"/>
+    <mergeCell ref="P276:Q276"/>
+    <mergeCell ref="P277:Q277"/>
+    <mergeCell ref="P222:Q222"/>
+    <mergeCell ref="A227:Q227"/>
+    <mergeCell ref="P223:Q223"/>
+    <mergeCell ref="P224:Q224"/>
+    <mergeCell ref="P242:Q242"/>
+    <mergeCell ref="P226:Q226"/>
+    <mergeCell ref="P228:Q228"/>
+    <mergeCell ref="P229:Q229"/>
+    <mergeCell ref="P230:Q230"/>
+    <mergeCell ref="P231:Q231"/>
+    <mergeCell ref="P256:Q256"/>
+    <mergeCell ref="P253:Q253"/>
+    <mergeCell ref="P257:Q257"/>
+    <mergeCell ref="P244:Q244"/>
+    <mergeCell ref="P232:Q232"/>
+    <mergeCell ref="P233:Q233"/>
+    <mergeCell ref="P235:Q235"/>
+    <mergeCell ref="P225:Q225"/>
+    <mergeCell ref="P267:Q267"/>
+    <mergeCell ref="P266:Q266"/>
+    <mergeCell ref="P265:Q265"/>
+    <mergeCell ref="P243:Q243"/>
+    <mergeCell ref="P221:Q221"/>
+    <mergeCell ref="P208:Q208"/>
+    <mergeCell ref="P215:Q215"/>
+    <mergeCell ref="P218:Q218"/>
+    <mergeCell ref="P268:Q268"/>
+    <mergeCell ref="A245:Q245"/>
+    <mergeCell ref="P246:Q246"/>
+    <mergeCell ref="P248:Q248"/>
+    <mergeCell ref="P249:Q249"/>
+    <mergeCell ref="P252:Q252"/>
+    <mergeCell ref="P258:Q258"/>
+    <mergeCell ref="P238:Q238"/>
+    <mergeCell ref="P239:Q239"/>
+    <mergeCell ref="P263:Q263"/>
+    <mergeCell ref="P264:Q264"/>
+    <mergeCell ref="P247:Q247"/>
+    <mergeCell ref="P250:Q250"/>
+    <mergeCell ref="P251:Q251"/>
+    <mergeCell ref="P254:Q254"/>
+    <mergeCell ref="P255:Q255"/>
+    <mergeCell ref="P259:Q259"/>
+    <mergeCell ref="P260:Q260"/>
+    <mergeCell ref="P261:Q261"/>
+    <mergeCell ref="P262:Q262"/>
+    <mergeCell ref="P175:Q175"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="P144:Q144"/>
+    <mergeCell ref="P145:Q145"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="A148:Q148"/>
+    <mergeCell ref="P149:Q149"/>
+    <mergeCell ref="P150:Q150"/>
+    <mergeCell ref="P151:Q151"/>
+    <mergeCell ref="P152:Q152"/>
+    <mergeCell ref="P153:Q153"/>
+    <mergeCell ref="P154:Q154"/>
+    <mergeCell ref="P155:Q155"/>
+    <mergeCell ref="P157:Q157"/>
+    <mergeCell ref="P156:Q156"/>
+    <mergeCell ref="A164:Q164"/>
+    <mergeCell ref="P174:Q174"/>
+    <mergeCell ref="A158:Q158"/>
+    <mergeCell ref="P159:Q159"/>
+    <mergeCell ref="P160:Q160"/>
+    <mergeCell ref="P161:Q161"/>
+    <mergeCell ref="A138:Q138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:Q127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A108:Q108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A121:Q121"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:Q96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:Q81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:Q67"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P173:Q173"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P162:Q162"/>
+    <mergeCell ref="P163:Q163"/>
+    <mergeCell ref="P167:Q167"/>
+    <mergeCell ref="P170:Q170"/>
+    <mergeCell ref="P171:Q171"/>
+    <mergeCell ref="P172:Q172"/>
+    <mergeCell ref="P169:Q169"/>
+    <mergeCell ref="P165:Q165"/>
+    <mergeCell ref="P166:Q166"/>
+    <mergeCell ref="P168:Q168"/>
+    <mergeCell ref="A176:Q176"/>
+    <mergeCell ref="P177:Q177"/>
+    <mergeCell ref="P179:Q179"/>
+    <mergeCell ref="P180:Q180"/>
+    <mergeCell ref="P184:Q184"/>
+    <mergeCell ref="P185:Q185"/>
+    <mergeCell ref="P186:Q186"/>
+    <mergeCell ref="P178:Q178"/>
+    <mergeCell ref="P181:Q181"/>
+    <mergeCell ref="P182:Q182"/>
+    <mergeCell ref="P183:Q183"/>
+    <mergeCell ref="P187:Q187"/>
+    <mergeCell ref="P192:Q192"/>
+    <mergeCell ref="P198:Q198"/>
+    <mergeCell ref="P195:Q195"/>
+    <mergeCell ref="P190:Q190"/>
+    <mergeCell ref="P196:Q196"/>
+    <mergeCell ref="A191:Q191"/>
+    <mergeCell ref="P197:Q197"/>
+    <mergeCell ref="P188:Q188"/>
+    <mergeCell ref="P193:Q193"/>
+    <mergeCell ref="P194:Q194"/>
+    <mergeCell ref="P189:Q189"/>
     <mergeCell ref="P199:Q199"/>
     <mergeCell ref="P200:Q200"/>
     <mergeCell ref="P203:Q203"/>
@@ -30739,291 +31027,6 @@
     <mergeCell ref="P216:Q216"/>
     <mergeCell ref="P202:Q202"/>
     <mergeCell ref="P217:Q217"/>
-    <mergeCell ref="P187:Q187"/>
-    <mergeCell ref="P192:Q192"/>
-    <mergeCell ref="P198:Q198"/>
-    <mergeCell ref="P195:Q195"/>
-    <mergeCell ref="P190:Q190"/>
-    <mergeCell ref="P196:Q196"/>
-    <mergeCell ref="A191:Q191"/>
-    <mergeCell ref="P197:Q197"/>
-    <mergeCell ref="P188:Q188"/>
-    <mergeCell ref="P193:Q193"/>
-    <mergeCell ref="P194:Q194"/>
-    <mergeCell ref="P189:Q189"/>
-    <mergeCell ref="A176:Q176"/>
-    <mergeCell ref="P177:Q177"/>
-    <mergeCell ref="P179:Q179"/>
-    <mergeCell ref="P180:Q180"/>
-    <mergeCell ref="P184:Q184"/>
-    <mergeCell ref="P185:Q185"/>
-    <mergeCell ref="P186:Q186"/>
-    <mergeCell ref="P178:Q178"/>
-    <mergeCell ref="P181:Q181"/>
-    <mergeCell ref="P182:Q182"/>
-    <mergeCell ref="P183:Q183"/>
-    <mergeCell ref="P162:Q162"/>
-    <mergeCell ref="P163:Q163"/>
-    <mergeCell ref="P167:Q167"/>
-    <mergeCell ref="P170:Q170"/>
-    <mergeCell ref="P171:Q171"/>
-    <mergeCell ref="P172:Q172"/>
-    <mergeCell ref="P169:Q169"/>
-    <mergeCell ref="P165:Q165"/>
-    <mergeCell ref="P166:Q166"/>
-    <mergeCell ref="P168:Q168"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P173:Q173"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A48:Q48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:Q67"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:Q81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:Q96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:Q127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A108:Q108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A121:Q121"/>
-    <mergeCell ref="A138:Q138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="P175:Q175"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="P143:Q143"/>
-    <mergeCell ref="P144:Q144"/>
-    <mergeCell ref="P145:Q145"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="P147:Q147"/>
-    <mergeCell ref="A148:Q148"/>
-    <mergeCell ref="P149:Q149"/>
-    <mergeCell ref="P150:Q150"/>
-    <mergeCell ref="P151:Q151"/>
-    <mergeCell ref="P152:Q152"/>
-    <mergeCell ref="P153:Q153"/>
-    <mergeCell ref="P154:Q154"/>
-    <mergeCell ref="P155:Q155"/>
-    <mergeCell ref="P157:Q157"/>
-    <mergeCell ref="P156:Q156"/>
-    <mergeCell ref="A164:Q164"/>
-    <mergeCell ref="P174:Q174"/>
-    <mergeCell ref="A158:Q158"/>
-    <mergeCell ref="P159:Q159"/>
-    <mergeCell ref="P160:Q160"/>
-    <mergeCell ref="P161:Q161"/>
-    <mergeCell ref="P221:Q221"/>
-    <mergeCell ref="P208:Q208"/>
-    <mergeCell ref="P215:Q215"/>
-    <mergeCell ref="P218:Q218"/>
-    <mergeCell ref="P268:Q268"/>
-    <mergeCell ref="A245:Q245"/>
-    <mergeCell ref="P246:Q246"/>
-    <mergeCell ref="P248:Q248"/>
-    <mergeCell ref="P249:Q249"/>
-    <mergeCell ref="P252:Q252"/>
-    <mergeCell ref="P258:Q258"/>
-    <mergeCell ref="P238:Q238"/>
-    <mergeCell ref="P239:Q239"/>
-    <mergeCell ref="P263:Q263"/>
-    <mergeCell ref="P264:Q264"/>
-    <mergeCell ref="P247:Q247"/>
-    <mergeCell ref="P250:Q250"/>
-    <mergeCell ref="P251:Q251"/>
-    <mergeCell ref="P254:Q254"/>
-    <mergeCell ref="P255:Q255"/>
-    <mergeCell ref="P259:Q259"/>
-    <mergeCell ref="P260:Q260"/>
-    <mergeCell ref="P261:Q261"/>
-    <mergeCell ref="P262:Q262"/>
-    <mergeCell ref="P256:Q256"/>
-    <mergeCell ref="P253:Q253"/>
-    <mergeCell ref="P257:Q257"/>
-    <mergeCell ref="P244:Q244"/>
-    <mergeCell ref="P232:Q232"/>
-    <mergeCell ref="P233:Q233"/>
-    <mergeCell ref="P235:Q235"/>
-    <mergeCell ref="P225:Q225"/>
-    <mergeCell ref="P267:Q267"/>
-    <mergeCell ref="P266:Q266"/>
-    <mergeCell ref="P265:Q265"/>
-    <mergeCell ref="P243:Q243"/>
-    <mergeCell ref="P222:Q222"/>
-    <mergeCell ref="A227:Q227"/>
-    <mergeCell ref="P223:Q223"/>
-    <mergeCell ref="P224:Q224"/>
-    <mergeCell ref="P242:Q242"/>
-    <mergeCell ref="P226:Q226"/>
-    <mergeCell ref="P228:Q228"/>
-    <mergeCell ref="P229:Q229"/>
-    <mergeCell ref="P230:Q230"/>
-    <mergeCell ref="P231:Q231"/>
-    <mergeCell ref="A269:Q269"/>
-    <mergeCell ref="P270:Q270"/>
-    <mergeCell ref="P271:Q271"/>
-    <mergeCell ref="P272:Q272"/>
-    <mergeCell ref="P273:Q273"/>
-    <mergeCell ref="P274:Q274"/>
-    <mergeCell ref="P275:Q275"/>
-    <mergeCell ref="P276:Q276"/>
-    <mergeCell ref="P277:Q277"/>
-    <mergeCell ref="P296:Q296"/>
-    <mergeCell ref="P297:Q297"/>
-    <mergeCell ref="P298:Q298"/>
-    <mergeCell ref="P299:Q299"/>
-    <mergeCell ref="P278:Q278"/>
-    <mergeCell ref="P287:Q287"/>
-    <mergeCell ref="P288:Q288"/>
-    <mergeCell ref="P289:Q289"/>
-    <mergeCell ref="P290:Q290"/>
-    <mergeCell ref="P291:Q291"/>
-    <mergeCell ref="P292:Q292"/>
-    <mergeCell ref="P293:Q293"/>
-    <mergeCell ref="P294:Q294"/>
-    <mergeCell ref="P295:Q295"/>
-    <mergeCell ref="A285:Q285"/>
-    <mergeCell ref="P286:Q286"/>
-    <mergeCell ref="P279:Q279"/>
-    <mergeCell ref="P280:Q280"/>
-    <mergeCell ref="P281:Q281"/>
-    <mergeCell ref="P282:Q282"/>
-    <mergeCell ref="P283:Q283"/>
-    <mergeCell ref="P284:Q284"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -31042,88 +31045,88 @@
       <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E1" s="59" t="s">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="41"/>
       <c r="Q1" s="37"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="60" t="s">
+      <c r="E3" s="69"/>
+      <c r="F3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="59" t="s">
         <v>800</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="59" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="80" t="s">
         <v>777</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="59" t="s">
         <v>18</v>
       </c>
       <c r="R3" s="78" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63"/>
+    <row r="4" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="67"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -31136,21 +31139,21 @@
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
       <c r="P4" s="81"/>
-      <c r="Q4" s="61"/>
+      <c r="Q4" s="60"/>
       <c r="R4" s="79"/>
     </row>
-    <row r="5" spans="1:18" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
         <v>229</v>
       </c>
@@ -31172,7 +31175,7 @@
       <c r="Q5" s="56"/>
       <c r="R5" s="57"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
         <v>1165</v>
       </c>
@@ -31224,7 +31227,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36">
         <v>1168</v>
       </c>
@@ -31276,7 +31279,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36">
         <v>1166</v>
       </c>
@@ -31328,7 +31331,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1167</v>
       </c>
@@ -31380,7 +31383,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1169</v>
       </c>
@@ -31432,7 +31435,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1159</v>
       </c>
@@ -31484,7 +31487,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1163</v>
       </c>
@@ -31536,7 +31539,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
         <v>264</v>
       </c>
@@ -31558,7 +31561,7 @@
       <c r="Q13" s="56"/>
       <c r="R13" s="57"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
         <v>1170</v>
       </c>
@@ -31612,7 +31615,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36">
         <v>1108</v>
       </c>
@@ -31666,7 +31669,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>1178</v>
       </c>
@@ -31720,7 +31723,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1171</v>
       </c>
@@ -31774,7 +31777,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1172</v>
       </c>
@@ -31828,7 +31831,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1173</v>
       </c>
@@ -31882,7 +31885,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1174</v>
       </c>
@@ -31936,7 +31939,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1181</v>
       </c>
@@ -31990,7 +31993,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="55" t="s">
         <v>296</v>
       </c>
@@ -32012,7 +32015,7 @@
       <c r="Q22" s="56"/>
       <c r="R22" s="57"/>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36">
         <v>1192</v>
       </c>
@@ -32066,7 +32069,7 @@
         <v>43573</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36">
         <v>1195</v>
       </c>
@@ -32120,7 +32123,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36">
         <v>1194</v>
       </c>
@@ -32174,7 +32177,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1197</v>
       </c>
@@ -32228,7 +32231,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1198</v>
       </c>
@@ -32282,7 +32285,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
         <v>304</v>
       </c>
@@ -32304,7 +32307,7 @@
       <c r="Q28" s="56"/>
       <c r="R28" s="57"/>
     </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36">
         <v>1199</v>
       </c>
@@ -32360,7 +32363,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36">
         <v>1200</v>
       </c>
@@ -32416,7 +32419,7 @@
         <v>43599</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36">
         <v>1202</v>
       </c>
@@ -32472,7 +32475,7 @@
         <v>43601</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1208</v>
       </c>
@@ -32528,7 +32531,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1204</v>
       </c>
@@ -32584,7 +32587,7 @@
         <v>43607</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1135</v>
       </c>
@@ -32640,7 +32643,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1206</v>
       </c>
@@ -32696,7 +32699,7 @@
         <v>43613</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1203</v>
       </c>
@@ -32752,7 +32755,7 @@
         <v>43615</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1207</v>
       </c>
@@ -32808,7 +32811,7 @@
         <v>43615</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
         <v>305</v>
       </c>
@@ -32830,7 +32833,7 @@
       <c r="Q38" s="56"/>
       <c r="R38" s="57"/>
     </row>
-    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1212</v>
       </c>
@@ -32886,7 +32889,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>1210</v>
       </c>
@@ -32942,7 +32945,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>1213</v>
       </c>
@@ -32998,7 +33001,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1214</v>
       </c>
@@ -33054,7 +33057,7 @@
         <v>43636</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1215</v>
       </c>
@@ -33110,7 +33113,7 @@
         <v>43641</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>1216</v>
       </c>
@@ -33166,7 +33169,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="55" t="s">
         <v>331</v>
       </c>
@@ -33188,7 +33191,7 @@
       <c r="Q45" s="56"/>
       <c r="R45" s="57"/>
     </row>
-    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="36">
         <v>1218</v>
       </c>
@@ -33244,7 +33247,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>1219</v>
       </c>
@@ -33300,7 +33303,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>1223</v>
       </c>
@@ -33356,7 +33359,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>1209</v>
       </c>
@@ -33412,7 +33415,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>1222</v>
       </c>
@@ -33468,7 +33471,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1224</v>
       </c>
@@ -33524,7 +33527,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1221</v>
       </c>
@@ -33580,7 +33583,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="55" t="s">
         <v>88</v>
       </c>
@@ -33602,7 +33605,7 @@
       <c r="Q53" s="56"/>
       <c r="R53" s="57"/>
     </row>
-    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="36">
         <v>1226</v>
       </c>
@@ -33658,7 +33661,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>1227</v>
       </c>
@@ -33714,7 +33717,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1220</v>
       </c>
@@ -33770,7 +33773,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1228</v>
       </c>
@@ -33826,7 +33829,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>1225</v>
       </c>
@@ -33882,7 +33885,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>1217</v>
       </c>
@@ -33938,7 +33941,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>1236</v>
       </c>
@@ -33990,7 +33993,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="55" t="s">
         <v>92</v>
       </c>
@@ -34012,7 +34015,7 @@
       <c r="Q61" s="56"/>
       <c r="R61" s="57"/>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="36">
         <v>1232</v>
       </c>
@@ -34068,7 +34071,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="36">
         <v>1205</v>
       </c>
@@ -34124,7 +34127,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="36">
         <v>1231</v>
       </c>
@@ -34180,7 +34183,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="36">
         <v>1225</v>
       </c>
@@ -34239,7 +34242,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="36">
         <v>1234</v>
       </c>
@@ -34295,7 +34298,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="36">
         <v>1235</v>
       </c>
@@ -34351,7 +34354,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="36">
         <v>1237</v>
       </c>
@@ -34410,7 +34413,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="36">
         <v>1238</v>
       </c>
@@ -34469,7 +34472,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="55" t="s">
         <v>171</v>
       </c>
@@ -34491,7 +34494,7 @@
       <c r="Q70" s="56"/>
       <c r="R70" s="57"/>
     </row>
-    <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="36">
         <v>1243</v>
       </c>
@@ -34547,7 +34550,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="36">
         <v>1239</v>
       </c>
@@ -34604,7 +34607,7 @@
       </c>
       <c r="S72" s="43"/>
     </row>
-    <row r="73" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="36">
         <v>1230</v>
       </c>
@@ -34661,7 +34664,7 @@
       </c>
       <c r="S73" s="43"/>
     </row>
-    <row r="74" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="36">
         <v>1240</v>
       </c>
@@ -34718,7 +34721,7 @@
       </c>
       <c r="S74" s="43"/>
     </row>
-    <row r="75" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="36">
         <v>1231</v>
       </c>
@@ -34774,7 +34777,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="36">
         <v>1185</v>
       </c>
@@ -34826,7 +34829,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="55" t="s">
         <v>193</v>
       </c>
@@ -34848,7 +34851,7 @@
       <c r="Q77" s="56"/>
       <c r="R77" s="57"/>
     </row>
-    <row r="78" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="36">
         <v>1245</v>
       </c>
@@ -34904,7 +34907,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="36">
         <v>1247</v>
       </c>
@@ -34960,7 +34963,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="36">
         <v>1246</v>
       </c>
@@ -35016,7 +35019,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="36">
         <v>1248</v>
       </c>
@@ -35068,7 +35071,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="36">
         <v>1229</v>
       </c>
@@ -35124,7 +35127,7 @@
         <v>43796</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="36">
         <v>1242</v>
       </c>
@@ -35180,7 +35183,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="55" t="s">
         <v>227</v>
       </c>
@@ -35202,7 +35205,7 @@
       <c r="Q84" s="56"/>
       <c r="R84" s="57"/>
     </row>
-    <row r="85" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="36">
         <v>1250</v>
       </c>
@@ -35258,7 +35261,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="36">
         <v>1253</v>
       </c>
@@ -35314,7 +35317,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="36">
         <v>1259</v>
       </c>
@@ -35370,7 +35373,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="36">
         <v>1255</v>
       </c>
@@ -35426,7 +35429,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="36">
         <v>1256</v>
       </c>
@@ -35482,7 +35485,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="36">
         <v>1251</v>
       </c>
@@ -35538,7 +35541,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="36">
         <v>1260</v>
       </c>
@@ -35594,7 +35597,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="36">
         <v>1257</v>
       </c>
@@ -35650,7 +35653,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="36">
         <v>1258</v>
       </c>
@@ -35706,7 +35709,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="36">
         <v>1264</v>
       </c>
@@ -35762,7 +35765,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="36">
         <v>1252</v>
       </c>
@@ -35818,7 +35821,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="36">
         <v>1262</v>
       </c>
@@ -35874,7 +35877,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="36">
         <v>1263</v>
       </c>
@@ -35930,7 +35933,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55" t="s">
         <v>229</v>
       </c>
@@ -35952,7 +35955,7 @@
       <c r="Q98" s="56"/>
       <c r="R98" s="57"/>
     </row>
-    <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="36">
         <v>1267</v>
       </c>
@@ -36008,7 +36011,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="36">
         <v>1268</v>
       </c>
@@ -36064,7 +36067,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="36">
         <v>1269</v>
       </c>
@@ -36120,7 +36123,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="36">
         <v>1244</v>
       </c>
@@ -36176,7 +36179,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="55" t="s">
         <v>264</v>
       </c>
@@ -36198,7 +36201,7 @@
       <c r="Q103" s="56"/>
       <c r="R103" s="57"/>
     </row>
-    <row r="104" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="36">
         <v>1260</v>
       </c>
@@ -36254,7 +36257,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="55" t="s">
         <v>266</v>
       </c>
@@ -36276,7 +36279,7 @@
       <c r="Q105" s="56"/>
       <c r="R105" s="57"/>
     </row>
-    <row r="106" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="36">
         <v>1254</v>
       </c>
@@ -36334,6 +36337,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A77:R77"/>
+    <mergeCell ref="A61:R61"/>
+    <mergeCell ref="A70:R70"/>
+    <mergeCell ref="A45:R45"/>
+    <mergeCell ref="A53:R53"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="A98:R98"/>
     <mergeCell ref="A103:R103"/>
     <mergeCell ref="A105:R105"/>
@@ -36350,21 +36368,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="A13:R13"/>
     <mergeCell ref="A22:R22"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A77:R77"/>
-    <mergeCell ref="A61:R61"/>
-    <mergeCell ref="A70:R70"/>
-    <mergeCell ref="A45:R45"/>
-    <mergeCell ref="A53:R53"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -36376,29 +36379,29 @@
   <dimension ref="A1:S116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:18" s="44" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" s="44" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="83" t="s">
@@ -36409,47 +36412,47 @@
         <v>4</v>
       </c>
       <c r="E2" s="70"/>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="59" t="s">
         <v>800</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="59" t="s">
         <v>17</v>
       </c>
       <c r="P2" s="80" t="s">
         <v>777</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="59" t="s">
         <v>18</v>
       </c>
       <c r="R2" s="80" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="44" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="44" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="82"/>
       <c r="B3" s="45" t="s">
         <v>2</v>
@@ -36477,7 +36480,7 @@
       <c r="Q3" s="82"/>
       <c r="R3" s="82"/>
     </row>
-    <row r="4" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
         <v>227</v>
       </c>
@@ -36499,7 +36502,7 @@
       <c r="Q4" s="56"/>
       <c r="R4" s="57"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36">
         <v>1250</v>
       </c>
@@ -36555,7 +36558,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
         <v>1253</v>
       </c>
@@ -36587,7 +36590,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>892</v>
+        <v>1137</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>16</v>
@@ -36602,16 +36605,16 @@
         <v>519</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>894</v>
+        <v>520</v>
       </c>
       <c r="R6" s="39">
         <v>43809</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36">
         <v>1259</v>
       </c>
@@ -36667,7 +36670,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36">
         <v>1255</v>
       </c>
@@ -36723,7 +36726,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36">
         <v>1256</v>
       </c>
@@ -36746,7 +36749,7 @@
         <v>884</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>912</v>
+        <v>524</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>917</v>
@@ -36779,7 +36782,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
         <v>1251</v>
       </c>
@@ -36835,7 +36838,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36">
         <v>1260</v>
       </c>
@@ -36891,7 +36894,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <v>1257</v>
       </c>
@@ -36947,7 +36950,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36">
         <v>1258</v>
       </c>
@@ -37003,7 +37006,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
         <v>1264</v>
       </c>
@@ -37059,7 +37062,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36">
         <v>1252</v>
       </c>
@@ -37115,7 +37118,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>1262</v>
       </c>
@@ -37171,7 +37174,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
         <v>1263</v>
       </c>
@@ -37227,7 +37230,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
         <v>229</v>
       </c>
@@ -37249,7 +37252,7 @@
       <c r="Q18" s="56"/>
       <c r="R18" s="57"/>
     </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36">
         <v>1262</v>
       </c>
@@ -37305,7 +37308,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
         <v>1267</v>
       </c>
@@ -37361,7 +37364,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36">
         <v>1268</v>
       </c>
@@ -37417,7 +37420,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36">
         <v>1269</v>
       </c>
@@ -37473,7 +37476,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36">
         <v>1244</v>
       </c>
@@ -37529,7 +37532,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="55" t="s">
         <v>264</v>
       </c>
@@ -37551,7 +37554,7 @@
       <c r="Q24" s="56"/>
       <c r="R24" s="57"/>
     </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36">
         <v>1270</v>
       </c>
@@ -37607,7 +37610,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36">
         <v>1271</v>
       </c>
@@ -37663,7 +37666,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36">
         <v>1272</v>
       </c>
@@ -37722,7 +37725,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36">
         <v>1273</v>
       </c>
@@ -37781,7 +37784,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36">
         <v>1260</v>
       </c>
@@ -37837,7 +37840,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36">
         <v>1278</v>
       </c>
@@ -37893,7 +37896,7 @@
         <v>43886</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36">
         <v>1261</v>
       </c>
@@ -37949,7 +37952,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
         <v>266</v>
       </c>
@@ -37971,7 +37974,7 @@
       <c r="Q32" s="56"/>
       <c r="R32" s="57"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36">
         <v>1275</v>
       </c>
@@ -38027,7 +38030,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="36">
         <v>1261</v>
       </c>
@@ -38083,7 +38086,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="36">
         <v>1281</v>
       </c>
@@ -38139,7 +38142,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="36">
         <v>1283</v>
       </c>
@@ -38195,7 +38198,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="36">
         <v>1284</v>
       </c>
@@ -38251,7 +38254,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="36">
         <v>1254</v>
       </c>
@@ -38307,7 +38310,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="36">
         <v>1287</v>
       </c>
@@ -38363,7 +38366,7 @@
         <v>43884</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="36">
         <v>1285</v>
       </c>
@@ -38419,7 +38422,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="36">
         <v>1286</v>
       </c>
@@ -38475,7 +38478,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="55" t="s">
         <v>296</v>
       </c>
@@ -38497,7 +38500,7 @@
       <c r="Q42" s="56"/>
       <c r="R42" s="57"/>
     </row>
-    <row r="43" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="36">
         <v>1282</v>
       </c>
@@ -38553,7 +38556,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="36">
         <v>1279</v>
       </c>
@@ -38609,7 +38612,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="36">
         <v>1276</v>
       </c>
@@ -38665,7 +38668,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="36">
         <v>1277</v>
       </c>
@@ -38724,7 +38727,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="36">
         <v>1226</v>
       </c>
@@ -38780,7 +38783,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="55" t="s">
         <v>304</v>
       </c>
@@ -38802,7 +38805,7 @@
       <c r="Q48" s="56"/>
       <c r="R48" s="57"/>
     </row>
-    <row r="49" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="36">
         <v>1292</v>
       </c>
@@ -38861,7 +38864,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="36">
         <v>1288</v>
       </c>
@@ -38917,7 +38920,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="36">
         <v>1254</v>
       </c>
@@ -38973,7 +38976,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="36">
         <v>1274</v>
       </c>
@@ -39030,7 +39033,7 @@
       </c>
       <c r="S52" s="43"/>
     </row>
-    <row r="53" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="36">
         <v>1293</v>
       </c>
@@ -39089,7 +39092,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="83" t="s">
         <v>305</v>
       </c>
@@ -39111,7 +39114,7 @@
       <c r="Q54" s="84"/>
       <c r="R54" s="85"/>
     </row>
-    <row r="55" spans="1:19" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="49">
         <v>1294</v>
       </c>
@@ -39167,7 +39170,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="49">
         <v>1295</v>
       </c>
@@ -39224,7 +39227,7 @@
       </c>
       <c r="S56" s="52"/>
     </row>
-    <row r="57" spans="1:19" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="49">
         <v>1296</v>
       </c>
@@ -39280,7 +39283,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="49">
         <v>1297</v>
       </c>
@@ -39336,7 +39339,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="49">
         <v>1301</v>
       </c>
@@ -39392,7 +39395,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="49">
         <v>1268</v>
       </c>
@@ -39448,7 +39451,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="49">
         <v>1298</v>
       </c>
@@ -39504,7 +39507,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="49">
         <v>1300</v>
       </c>
@@ -39560,7 +39563,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="55" t="s">
         <v>331</v>
       </c>
@@ -39582,7 +39585,7 @@
       <c r="Q63" s="56"/>
       <c r="R63" s="57"/>
     </row>
-    <row r="64" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="36">
         <v>1299</v>
       </c>
@@ -39638,7 +39641,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="36">
         <v>1302</v>
       </c>
@@ -39695,7 +39698,7 @@
       </c>
       <c r="S65" s="43"/>
     </row>
-    <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="36">
         <v>1303</v>
       </c>
@@ -39752,7 +39755,7 @@
       </c>
       <c r="S66" s="43"/>
     </row>
-    <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="36">
         <v>1304</v>
       </c>
@@ -39809,7 +39812,7 @@
       </c>
       <c r="S67" s="43"/>
     </row>
-    <row r="68" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="36">
         <v>1229</v>
       </c>
@@ -39865,7 +39868,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="36">
         <v>1306</v>
       </c>
@@ -39921,7 +39924,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="36">
         <v>1307</v>
       </c>
@@ -39977,7 +39980,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="36">
         <v>1308</v>
       </c>
@@ -40033,7 +40036,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="36">
         <v>1309</v>
       </c>
@@ -40089,7 +40092,7 @@
         <v>44042</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="36">
         <v>1311</v>
       </c>
@@ -40145,7 +40148,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="36">
         <v>1312</v>
       </c>
@@ -40201,7 +40204,7 @@
         <v>44041</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55" t="s">
         <v>88</v>
       </c>
@@ -40223,7 +40226,7 @@
       <c r="Q75" s="56"/>
       <c r="R75" s="57"/>
     </row>
-    <row r="76" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="36">
         <v>1305</v>
       </c>
@@ -40279,7 +40282,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="36">
         <v>1314</v>
       </c>
@@ -40335,7 +40338,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="36">
         <v>1318</v>
       </c>
@@ -40392,7 +40395,7 @@
       </c>
       <c r="S78" s="43"/>
     </row>
-    <row r="79" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="36">
         <v>1315</v>
       </c>
@@ -40449,7 +40452,7 @@
       </c>
       <c r="S79" s="43"/>
     </row>
-    <row r="80" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="36">
         <v>1298</v>
       </c>
@@ -40505,7 +40508,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="36">
         <v>1319</v>
       </c>
@@ -40561,7 +40564,7 @@
         <v>44061</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="36">
         <v>1322</v>
       </c>
@@ -40618,7 +40621,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="36">
         <v>1323</v>
       </c>
@@ -40677,7 +40680,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="36">
         <v>1310</v>
       </c>
@@ -40736,7 +40739,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="36">
         <v>1313</v>
       </c>
@@ -40795,7 +40798,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="55" t="s">
         <v>92</v>
       </c>
@@ -40817,7 +40820,7 @@
       <c r="Q86" s="56"/>
       <c r="R86" s="57"/>
     </row>
-    <row r="87" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="36">
         <v>1330</v>
       </c>
@@ -40873,7 +40876,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="36">
         <v>1324</v>
       </c>
@@ -40929,7 +40932,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="36">
         <v>1325</v>
       </c>
@@ -40985,7 +40988,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="36">
         <v>1322</v>
       </c>
@@ -41041,7 +41044,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="36">
         <v>1320</v>
       </c>
@@ -41097,7 +41100,7 @@
         <v>44096</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="36">
         <v>1321</v>
       </c>
@@ -41156,7 +41159,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="36">
         <v>1317</v>
       </c>
@@ -41215,7 +41218,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="55" t="s">
         <v>171</v>
       </c>
@@ -41237,7 +41240,7 @@
       <c r="Q94" s="56"/>
       <c r="R94" s="57"/>
     </row>
-    <row r="95" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="36">
         <v>1329</v>
       </c>
@@ -41296,7 +41299,7 @@
         <v>44111</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="36">
         <v>1327</v>
       </c>
@@ -41352,7 +41355,7 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="36">
         <v>1331</v>
       </c>
@@ -41411,7 +41414,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="36" t="s">
         <v>1129</v>
       </c>
@@ -41468,7 +41471,7 @@
       </c>
       <c r="S98" s="43"/>
     </row>
-    <row r="99" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="36">
         <v>1328</v>
       </c>
@@ -41524,7 +41527,7 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="36">
         <v>1332</v>
       </c>
@@ -41583,7 +41586,7 @@
         <v>44128</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="36">
         <v>1336</v>
       </c>
@@ -41639,7 +41642,7 @@
         <v>44132</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="36">
         <v>1333</v>
       </c>
@@ -41695,7 +41698,7 @@
         <v>44134</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="36">
         <v>1326</v>
       </c>
@@ -41751,7 +41754,7 @@
         <v>44134</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="36">
         <v>1341</v>
       </c>
@@ -41807,7 +41810,7 @@
         <v>44134</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="55" t="s">
         <v>193</v>
       </c>
@@ -41829,7 +41832,7 @@
       <c r="Q105" s="56"/>
       <c r="R105" s="57"/>
     </row>
-    <row r="106" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="36">
         <v>1334</v>
       </c>
@@ -41888,7 +41891,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="36">
         <v>1337</v>
       </c>
@@ -41944,7 +41947,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="36">
         <v>1338</v>
       </c>
@@ -41976,7 +41979,7 @@
         <v>44153</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="36">
         <v>1335</v>
       </c>
@@ -42032,7 +42035,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="36">
         <v>1339</v>
       </c>
@@ -42064,7 +42067,7 @@
         <v>44161</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="36">
         <v>1340</v>
       </c>
@@ -42096,7 +42099,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="36"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -42116,7 +42119,7 @@
       <c r="Q112" s="13"/>
       <c r="R112" s="39"/>
     </row>
-    <row r="113" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="36"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -42136,7 +42139,7 @@
       <c r="Q113" s="13"/>
       <c r="R113" s="39"/>
     </row>
-    <row r="114" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="36"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -42156,7 +42159,7 @@
       <c r="Q114" s="13"/>
       <c r="R114" s="39"/>
     </row>
-    <row r="115" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="36"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -42176,7 +42179,7 @@
       <c r="Q115" s="13"/>
       <c r="R115" s="39"/>
     </row>
-    <row r="116" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="36"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -42198,18 +42201,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A42:R42"/>
-    <mergeCell ref="A48:R48"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A105:R105"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="R2:R3"/>
@@ -42226,6 +42217,18 @@
     <mergeCell ref="A75:R75"/>
     <mergeCell ref="A54:R54"/>
     <mergeCell ref="A63:R63"/>
+    <mergeCell ref="A42:R42"/>
+    <mergeCell ref="A48:R48"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
